--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_12_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>876877.3031358232</v>
+        <v>873999.5256608138</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25793588.65960981</v>
+        <v>25793588.65960983</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4531414.533550203</v>
+        <v>4531414.533550204</v>
       </c>
     </row>
     <row r="9">
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>24.76484596498758</v>
       </c>
       <c r="F3" t="n">
-        <v>24.76484596498756</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G3" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>28.11631013281968</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>24.76484596498758</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>28.11631013281968</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>24.76484596498758</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="V7" t="n">
         <v>28.11631013281968</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>24.76484596498758</v>
+      </c>
+      <c r="W9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="T9" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>24.76484596498756</v>
-      </c>
       <c r="X9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="H10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>326.2342904821521</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5743746979489</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1813372409181</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>113.6518751616863</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8222853925791</v>
+        <v>10.58172617587184</v>
       </c>
       <c r="H13" t="n">
         <v>135.4935049471435</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.55129030293031</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9778450140267</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.6069191183444</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>147.4373865630275</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>219.9399879933687</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5743746979489</v>
+        <v>90.78407642277249</v>
       </c>
       <c r="H14" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.8222853925791</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4935049471435</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.55129030293031</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.6069191183444</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3404886720007</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.90637250081628</v>
+        <v>125.453315384995</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>372.0404004398728</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.03318780980665</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2019,7 +2019,7 @@
         <v>163.8222853925791</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4935049471435</v>
+        <v>117.5670307377656</v>
       </c>
       <c r="I19" t="n">
         <v>75.55129030293031</v>
@@ -2055,7 +2055,7 @@
         <v>154.9778450140267</v>
       </c>
       <c r="T19" t="n">
-        <v>219.6804449089667</v>
+        <v>237.6069191183444</v>
       </c>
       <c r="U19" t="n">
         <v>277.3404886720007</v>
@@ -2086,16 +2086,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>295.5853850246405</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5743746979489</v>
       </c>
       <c r="H20" t="n">
         <v>277.2614609331368</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6336565424721</v>
+        <v>193.3912968830477</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2250,7 +2250,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>152.2166822738073</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.8222853925791</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>254.1774055798342</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2332,7 +2332,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>205.3924106906707</v>
+        <v>398.5743746979489</v>
       </c>
       <c r="H23" t="n">
         <v>277.2614609331368</v>
@@ -2386,7 +2386,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>208.1019333373802</v>
       </c>
     </row>
     <row r="24">
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>222.2117833792758</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>206.1528664177783</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>118.5771996217686</v>
       </c>
       <c r="G26" t="n">
         <v>398.5743746979489</v>
@@ -2608,10 +2608,10 @@
         <v>64.09956378146836</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.1813372409181</v>
       </c>
       <c r="U26" t="n">
-        <v>164.5192534126656</v>
+        <v>255.6336565424721</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2733,7 +2733,7 @@
         <v>135.4935049471435</v>
       </c>
       <c r="I28" t="n">
-        <v>75.55129030293031</v>
+        <v>57.62481609355353</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S28" t="n">
         <v>154.9778450140267</v>
       </c>
       <c r="T28" t="n">
-        <v>231.5315912578991</v>
+        <v>237.6069191183444</v>
       </c>
       <c r="U28" t="n">
         <v>277.3404886720007</v>
@@ -2794,7 +2794,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>120.3359823161078</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T29" t="n">
         <v>211.1813372409181</v>
@@ -2851,7 +2851,7 @@
         <v>255.6336565424721</v>
       </c>
       <c r="V29" t="n">
-        <v>115.7183441357571</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -2958,7 +2958,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>146.6196495792983</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -3009,7 +3009,7 @@
         <v>277.3404886720007</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>260.9678785086749</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>113.3541402778899</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -3088,7 +3088,7 @@
         <v>255.6336565424721</v>
       </c>
       <c r="V32" t="n">
-        <v>51.61878035428777</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -3198,7 +3198,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>152.2166822738085</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>163.8222853925791</v>
@@ -3240,7 +3240,7 @@
         <v>154.9778450140267</v>
       </c>
       <c r="T34" t="n">
-        <v>237.6069191183444</v>
+        <v>219.6804449089681</v>
       </c>
       <c r="U34" t="n">
         <v>277.3404886720007</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>293.0718483274711</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.5743746979489</v>
       </c>
       <c r="H35" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>255.6336565424721</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>194.5858281647498</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>146.6196495792971</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3477,7 +3477,7 @@
         <v>154.9778450140267</v>
       </c>
       <c r="T37" t="n">
-        <v>237.6069191183444</v>
+        <v>219.6804449089667</v>
       </c>
       <c r="U37" t="n">
         <v>277.3404886720007</v>
@@ -3508,10 +3508,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>24.19316951986564</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>17.8896489518083</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3678,7 +3678,7 @@
         <v>163.8222853925791</v>
       </c>
       <c r="H40" t="n">
-        <v>129.4181770866976</v>
+        <v>135.4935049471435</v>
       </c>
       <c r="I40" t="n">
         <v>75.55129030293031</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9778450140267</v>
+        <v>137.0513708046492</v>
       </c>
       <c r="T40" t="n">
         <v>237.6069191183444</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>132.5303237500982</v>
       </c>
       <c r="Y41" t="n">
-        <v>90.65301855561486</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3900,19 +3900,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>153.5434362692404</v>
+        <v>161.4874051157309</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.8222853925791</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9778450140267</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.6069191183444</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3404886720007</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>110.2420612034501</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.5743746979489</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>204.911064150466</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,10 +4137,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8222853925791</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>135.4935049471435</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>75.55129030293031</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>136.3368157473419</v>
+        <v>277.3404886720007</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>195.974812099019</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4339,16 +4339,16 @@
         <v>2.249304810625575</v>
       </c>
       <c r="M2" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="N2" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O2" t="n">
-        <v>57.91959887360855</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P2" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q2" t="n">
         <v>112.4652405312787</v>
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="C3" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="D3" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="E3" t="n">
-        <v>55.66461400032987</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="F3" t="n">
+        <v>59.04993134157444</v>
+      </c>
+      <c r="G3" t="n">
         <v>30.6496180761</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.249304810625575</v>
       </c>
       <c r="H3" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J3" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K3" t="n">
         <v>28.95979943680427</v>
@@ -4418,16 +4418,16 @@
         <v>28.95979943680427</v>
       </c>
       <c r="M3" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="O3" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="P3" t="n">
         <v>56.79494646829576</v>
-      </c>
-      <c r="N3" t="n">
-        <v>56.79494646829576</v>
-      </c>
-      <c r="O3" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="P3" t="n">
-        <v>84.63009349978725</v>
       </c>
       <c r="Q3" t="n">
         <v>84.63009349978725</v>
@@ -4436,25 +4436,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U3" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V3" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="W3" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="X3" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C4" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D4" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E4" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F4" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G4" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H4" t="n">
         <v>30.6496180761</v>
@@ -4491,22 +4491,22 @@
         <v>2.249304810625575</v>
       </c>
       <c r="K4" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L4" t="n">
-        <v>57.91959887360855</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M4" t="n">
-        <v>84.63009349978725</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N4" t="n">
         <v>84.63009349978725</v>
       </c>
       <c r="O4" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P4" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q4" t="n">
         <v>112.4652405312787</v>
@@ -4515,25 +4515,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X4" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
     </row>
     <row r="5">
@@ -4579,10 +4579,10 @@
         <v>2.249304810625575</v>
       </c>
       <c r="N5" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O5" t="n">
-        <v>28.95979943680427</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P5" t="n">
         <v>56.79494646829576</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.249304810625575</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="C6" t="n">
-        <v>2.249304810625575</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="D6" t="n">
-        <v>2.249304810625575</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="E6" t="n">
-        <v>2.249304810625575</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="F6" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="G6" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H6" t="n">
         <v>2.249304810625575</v>
@@ -4646,22 +4646,22 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J6" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K6" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L6" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="M6" t="n">
-        <v>2.249304810625575</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N6" t="n">
-        <v>2.249304810625575</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="O6" t="n">
-        <v>28.95979943680427</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P6" t="n">
         <v>56.79494646829576</v>
@@ -4673,25 +4673,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S6" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T6" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U6" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V6" t="n">
-        <v>27.26430073485544</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="W6" t="n">
-        <v>27.26430073485544</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="X6" t="n">
-        <v>27.26430073485544</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.249304810625575</v>
+        <v>112.4652405312787</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C7" t="n">
-        <v>55.66461400032987</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D7" t="n">
-        <v>55.66461400032987</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E7" t="n">
-        <v>55.66461400032987</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F7" t="n">
-        <v>55.66461400032987</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G7" t="n">
-        <v>55.66461400032987</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H7" t="n">
         <v>30.6496180761</v>
@@ -4728,19 +4728,19 @@
         <v>2.249304810625575</v>
       </c>
       <c r="K7" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L7" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M7" t="n">
-        <v>28.95979943680427</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N7" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O7" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P7" t="n">
         <v>112.4652405312787</v>
@@ -4749,28 +4749,28 @@
         <v>112.4652405312787</v>
       </c>
       <c r="R7" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="S7" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="T7" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="U7" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="V7" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="W7" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="X7" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="Y7" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.68081948359846</v>
+        <v>87.68081948359844</v>
       </c>
       <c r="C8" t="n">
-        <v>64.82049353730264</v>
+        <v>64.82049353730262</v>
       </c>
       <c r="D8" t="n">
-        <v>45.56827676270699</v>
+        <v>45.56827676270698</v>
       </c>
       <c r="E8" t="n">
-        <v>23.6317409509686</v>
+        <v>23.63174095096858</v>
       </c>
       <c r="F8" t="n">
-        <v>2.5479631807729</v>
+        <v>2.547963180772885</v>
       </c>
       <c r="G8" t="n">
-        <v>2.24930481062559</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H8" t="n">
-        <v>2.24930481062559</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="I8" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J8" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="L8" t="n">
         <v>30.08445184211706</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>57.91959887360855</v>
       </c>
-      <c r="L8" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="M8" t="n">
-        <v>84.63009349978725</v>
-      </c>
       <c r="N8" t="n">
-        <v>84.63009349978725</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="O8" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P8" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q8" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R8" t="n">
         <v>112.4652405312787</v>
@@ -4846,7 +4846,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X8" t="n">
-        <v>104.7856457394301</v>
+        <v>104.78564573943</v>
       </c>
       <c r="Y8" t="n">
         <v>103.4887797347244</v>
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="C9" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="D9" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="E9" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="F9" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="G9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H9" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="I9" t="n">
-        <v>9.695947772537416</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="J9" t="n">
-        <v>37.5310948040289</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K9" t="n">
-        <v>37.5310948040289</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="L9" t="n">
-        <v>37.5310948040289</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="M9" t="n">
-        <v>37.5310948040289</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N9" t="n">
-        <v>37.5310948040289</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="O9" t="n">
-        <v>37.5310948040289</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P9" t="n">
         <v>56.79494646829576</v>
@@ -4910,25 +4910,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T9" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U9" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V9" t="n">
-        <v>55.66461400032987</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="W9" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="X9" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="C10" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="D10" t="n">
-        <v>30.6496180761</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="E10" t="n">
-        <v>30.6496180761</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="F10" t="n">
-        <v>30.6496180761</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="G10" t="n">
-        <v>30.6496180761</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="H10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="I10" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J10" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K10" t="n">
-        <v>2.249304810625575</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="L10" t="n">
-        <v>2.249304810625575</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="M10" t="n">
-        <v>28.95979943680427</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="N10" t="n">
-        <v>56.79494646829576</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O10" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P10" t="n">
         <v>112.4652405312787</v>
@@ -4986,28 +4986,28 @@
         <v>112.4652405312787</v>
       </c>
       <c r="R10" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="S10" t="n">
-        <v>59.04993134157444</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T10" t="n">
-        <v>59.04993134157444</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U10" t="n">
-        <v>59.04993134157444</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V10" t="n">
-        <v>59.04993134157444</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="W10" t="n">
-        <v>59.04993134157444</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="X10" t="n">
-        <v>59.04993134157444</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.04993134157444</v>
+        <v>112.4652405312787</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>462.2561734627899</v>
+        <v>865.7803420801241</v>
       </c>
       <c r="C11" t="n">
-        <v>462.2561734627899</v>
+        <v>438.8796120934242</v>
       </c>
       <c r="D11" t="n">
-        <v>462.2561734627899</v>
+        <v>438.8796120934242</v>
       </c>
       <c r="E11" t="n">
-        <v>36.27923361064751</v>
+        <v>438.8796120934242</v>
       </c>
       <c r="F11" t="n">
-        <v>36.27923361064751</v>
+        <v>438.8796120934242</v>
       </c>
       <c r="G11" t="n">
         <v>36.27923361064751</v>
@@ -5041,25 +5041,25 @@
         <v>67.7735130363568</v>
       </c>
       <c r="J11" t="n">
-        <v>193.7198325172135</v>
+        <v>183.27976252279</v>
       </c>
       <c r="K11" t="n">
-        <v>375.0787678060283</v>
+        <v>364.6386978116047</v>
       </c>
       <c r="L11" t="n">
-        <v>606.0671001877731</v>
+        <v>595.6270301933496</v>
       </c>
       <c r="M11" t="n">
-        <v>868.2324102339578</v>
+        <v>857.7923402395343</v>
       </c>
       <c r="N11" t="n">
-        <v>1135.389572943643</v>
+        <v>1124.94950294922</v>
       </c>
       <c r="O11" t="n">
-        <v>1385.491526052463</v>
+        <v>1375.05145605804</v>
       </c>
       <c r="P11" t="n">
-        <v>1593.341344078074</v>
+        <v>1582.90127408365</v>
       </c>
       <c r="Q11" t="n">
         <v>1741.599829975285</v>
@@ -5071,22 +5071,22 @@
         <v>1813.961680532376</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.961680532376</v>
+        <v>1600.647198470842</v>
       </c>
       <c r="U11" t="n">
-        <v>1813.961680532376</v>
+        <v>1600.647198470842</v>
       </c>
       <c r="V11" t="n">
-        <v>1813.961680532376</v>
+        <v>1600.647198470842</v>
       </c>
       <c r="W11" t="n">
-        <v>1699.161806631682</v>
+        <v>1600.647198470842</v>
       </c>
       <c r="X11" t="n">
-        <v>1287.44180779943</v>
+        <v>1600.647198470842</v>
       </c>
       <c r="Y11" t="n">
-        <v>882.1045377543201</v>
+        <v>1195.309928425732</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>475.9820170681692</v>
       </c>
       <c r="D12" t="n">
-        <v>372.1420585834541</v>
+        <v>372.1420585834543</v>
       </c>
       <c r="E12" t="n">
-        <v>267.4401248563913</v>
+        <v>267.4401248563915</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7942945392954</v>
+        <v>173.7942945392956</v>
       </c>
       <c r="G12" t="n">
-        <v>80.67080067165148</v>
+        <v>80.67080067165169</v>
       </c>
       <c r="H12" t="n">
         <v>36.27923361064751</v>
       </c>
       <c r="I12" t="n">
-        <v>51.66049294899003</v>
+        <v>75.11779879340187</v>
       </c>
       <c r="J12" t="n">
-        <v>409.4998161851631</v>
+        <v>432.957122029575</v>
       </c>
       <c r="K12" t="n">
-        <v>534.5546893914063</v>
+        <v>558.0119952358182</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2338120848043</v>
+        <v>733.6911179292161</v>
       </c>
       <c r="M12" t="n">
-        <v>918.3885530970992</v>
+        <v>941.8458589415111</v>
       </c>
       <c r="N12" t="n">
-        <v>1134.393935519036</v>
+        <v>1157.851241363448</v>
       </c>
       <c r="O12" t="n">
-        <v>1328.3859436385</v>
+        <v>1351.843249482912</v>
       </c>
       <c r="P12" t="n">
-        <v>1480.940009527381</v>
+        <v>1504.397315371793</v>
       </c>
       <c r="Q12" t="n">
-        <v>1780.78843748949</v>
+        <v>1675.332937204584</v>
       </c>
       <c r="R12" t="n">
         <v>1813.961680532376</v>
@@ -5153,7 +5153,7 @@
         <v>1611.78667446426</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.079680878288</v>
+        <v>1427.079680878289</v>
       </c>
       <c r="V12" t="n">
         <v>1222.106542017555</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>840.0051687177989</v>
+        <v>598.3251757363989</v>
       </c>
       <c r="C13" t="n">
-        <v>840.0051687177989</v>
+        <v>426.3526126153149</v>
       </c>
       <c r="D13" t="n">
-        <v>676.6883958445696</v>
+        <v>426.3526126153149</v>
       </c>
       <c r="E13" t="n">
-        <v>510.4801899974232</v>
+        <v>260.1444067681684</v>
       </c>
       <c r="F13" t="n">
-        <v>338.6184157719836</v>
+        <v>260.1444067681684</v>
       </c>
       <c r="G13" t="n">
-        <v>173.1413598198834</v>
+        <v>249.455794469308</v>
       </c>
       <c r="H13" t="n">
-        <v>36.27923361064751</v>
+        <v>112.5936682600721</v>
       </c>
       <c r="I13" t="n">
         <v>36.27923361064751</v>
@@ -5202,49 +5202,49 @@
         <v>147.8131801616682</v>
       </c>
       <c r="K13" t="n">
-        <v>463.1494045149021</v>
+        <v>215.8667954008801</v>
       </c>
       <c r="L13" t="n">
-        <v>555.0942941080269</v>
+        <v>664.822311332643</v>
       </c>
       <c r="M13" t="n">
-        <v>654.7500658397732</v>
+        <v>762.2947767736059</v>
       </c>
       <c r="N13" t="n">
-        <v>1103.705581771536</v>
+        <v>858.7264128077718</v>
       </c>
       <c r="O13" t="n">
-        <v>1552.661097703299</v>
+        <v>1307.681928739535</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.954020728963</v>
+        <v>1690.731056338507</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.961680532376</v>
       </c>
       <c r="R13" t="n">
-        <v>1801.990825634464</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.447547842518</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="T13" t="n">
-        <v>1405.44055883409</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="U13" t="n">
-        <v>1405.44055883409</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="V13" t="n">
-        <v>1405.44055883409</v>
+        <v>1532.250213140404</v>
       </c>
       <c r="W13" t="n">
-        <v>1256.513905740122</v>
+        <v>1257.397809312917</v>
       </c>
       <c r="X13" t="n">
-        <v>1256.513905740122</v>
+        <v>1014.833912758722</v>
       </c>
       <c r="Y13" t="n">
-        <v>1030.171137429865</v>
+        <v>788.4911444484645</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>941.1032978777732</v>
+        <v>980.0052327036769</v>
       </c>
       <c r="C14" t="n">
-        <v>941.1032978777732</v>
+        <v>553.1045027169771</v>
       </c>
       <c r="D14" t="n">
-        <v>941.1032978777732</v>
+        <v>553.1045027169771</v>
       </c>
       <c r="E14" t="n">
-        <v>941.1032978777732</v>
+        <v>553.1045027169771</v>
       </c>
       <c r="F14" t="n">
-        <v>718.9416938440675</v>
+        <v>127.9803209063773</v>
       </c>
       <c r="G14" t="n">
-        <v>316.3413153612908</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27923361064749</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="I14" t="n">
-        <v>67.77351303635679</v>
+        <v>67.7735130363568</v>
       </c>
       <c r="J14" t="n">
-        <v>183.27976252279</v>
+        <v>193.7198325172135</v>
       </c>
       <c r="K14" t="n">
-        <v>364.6386978116047</v>
+        <v>375.0787678060283</v>
       </c>
       <c r="L14" t="n">
-        <v>595.6270301933496</v>
+        <v>606.0671001877731</v>
       </c>
       <c r="M14" t="n">
-        <v>857.7923402395343</v>
+        <v>868.2324102339578</v>
       </c>
       <c r="N14" t="n">
-        <v>1124.94950294922</v>
+        <v>1135.389572943643</v>
       </c>
       <c r="O14" t="n">
-        <v>1375.05145605804</v>
+        <v>1385.491526052463</v>
       </c>
       <c r="P14" t="n">
-        <v>1582.90127408365</v>
+        <v>1593.341344078074</v>
       </c>
       <c r="Q14" t="n">
-        <v>1731.159759980861</v>
+        <v>1741.599829975285</v>
       </c>
       <c r="R14" t="n">
-        <v>1813.961680532374</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="S14" t="n">
-        <v>1749.214646409679</v>
+        <v>1749.21464640968</v>
       </c>
       <c r="T14" t="n">
-        <v>1749.214646409679</v>
+        <v>1749.21464640968</v>
       </c>
       <c r="U14" t="n">
-        <v>1749.214646409679</v>
+        <v>1749.21464640968</v>
       </c>
       <c r="V14" t="n">
-        <v>1749.214646409679</v>
+        <v>1391.72523153593</v>
       </c>
       <c r="W14" t="n">
-        <v>1352.823296710026</v>
+        <v>1391.72523153593</v>
       </c>
       <c r="X14" t="n">
-        <v>941.1032978777732</v>
+        <v>980.0052327036769</v>
       </c>
       <c r="Y14" t="n">
-        <v>941.1032978777732</v>
+        <v>980.0052327036769</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4879205506643</v>
+        <v>593.4879205506644</v>
       </c>
       <c r="C15" t="n">
-        <v>475.9820170681691</v>
+        <v>475.9820170681692</v>
       </c>
       <c r="D15" t="n">
-        <v>372.1420585834541</v>
+        <v>372.1420585834542</v>
       </c>
       <c r="E15" t="n">
-        <v>267.4401248563913</v>
+        <v>267.4401248563914</v>
       </c>
       <c r="F15" t="n">
         <v>173.7942945392955</v>
       </c>
       <c r="G15" t="n">
-        <v>80.67080067165176</v>
+        <v>80.67080067165178</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27923361064749</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="I15" t="n">
-        <v>51.66049294899</v>
+        <v>75.11779879340187</v>
       </c>
       <c r="J15" t="n">
-        <v>117.397323715572</v>
+        <v>432.957122029575</v>
       </c>
       <c r="K15" t="n">
-        <v>242.4521969218152</v>
+        <v>558.0119952358182</v>
       </c>
       <c r="L15" t="n">
-        <v>418.1313196152131</v>
+        <v>733.6911179292161</v>
       </c>
       <c r="M15" t="n">
-        <v>663.8259648425387</v>
+        <v>941.8458589415111</v>
       </c>
       <c r="N15" t="n">
-        <v>879.8313472644752</v>
+        <v>1157.851241363448</v>
       </c>
       <c r="O15" t="n">
-        <v>1073.823355383939</v>
+        <v>1351.843249482912</v>
       </c>
       <c r="P15" t="n">
-        <v>1226.37742127282</v>
+        <v>1504.397315371793</v>
       </c>
       <c r="Q15" t="n">
         <v>1675.332937204583</v>
@@ -5393,16 +5393,16 @@
         <v>1427.079680878288</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.106542017554</v>
+        <v>1222.106542017555</v>
       </c>
       <c r="W15" t="n">
         <v>1025.585164850772</v>
       </c>
       <c r="X15" t="n">
-        <v>862.1078186174346</v>
+        <v>862.1078186174348</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.414929970727</v>
+        <v>722.4149299707271</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1088.292166488307</v>
+        <v>367.9644954098941</v>
       </c>
       <c r="C16" t="n">
-        <v>916.3196033672234</v>
+        <v>367.9644954098941</v>
       </c>
       <c r="D16" t="n">
-        <v>753.0028304939941</v>
+        <v>367.9644954098941</v>
       </c>
       <c r="E16" t="n">
-        <v>586.7946246468476</v>
+        <v>201.7562895627476</v>
       </c>
       <c r="F16" t="n">
-        <v>414.932850421408</v>
+        <v>201.7562895627476</v>
       </c>
       <c r="G16" t="n">
-        <v>249.455794469308</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="H16" t="n">
-        <v>112.593668260072</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27923361064749</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="J16" t="n">
-        <v>69.89146351344726</v>
+        <v>147.8131801616682</v>
       </c>
       <c r="K16" t="n">
-        <v>137.9450787526591</v>
+        <v>215.8667954008801</v>
       </c>
       <c r="L16" t="n">
-        <v>586.9005946844218</v>
+        <v>307.8116849940049</v>
       </c>
       <c r="M16" t="n">
-        <v>684.3730601253847</v>
+        <v>756.7672009257678</v>
       </c>
       <c r="N16" t="n">
-        <v>1133.328576057147</v>
+        <v>1205.722716857531</v>
       </c>
       <c r="O16" t="n">
-        <v>1582.28409198891</v>
+        <v>1654.678232789294</v>
       </c>
       <c r="P16" t="n">
-        <v>1652.577015014574</v>
+        <v>1724.971155814958</v>
       </c>
       <c r="Q16" t="n">
-        <v>1813.961680532374</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="R16" t="n">
-        <v>1813.961680532374</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="S16" t="n">
-        <v>1813.961680532374</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="T16" t="n">
-        <v>1813.961680532374</v>
+        <v>1573.954691523947</v>
       </c>
       <c r="U16" t="n">
-        <v>1813.961680532374</v>
+        <v>1293.812783774451</v>
       </c>
       <c r="V16" t="n">
-        <v>1813.961680532374</v>
+        <v>1012.10131638248</v>
       </c>
       <c r="W16" t="n">
-        <v>1539.109276704887</v>
+        <v>737.248912554993</v>
       </c>
       <c r="X16" t="n">
-        <v>1296.545380150693</v>
+        <v>494.6850160007981</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.458135200373</v>
+        <v>367.9644954098941</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2163.858216608749</v>
+        <v>1740.565595793749</v>
       </c>
       <c r="C17" t="n">
-        <v>1736.957486622049</v>
+        <v>1313.664865807049</v>
       </c>
       <c r="D17" t="n">
         <v>1313.664865807049</v>
@@ -5533,34 +5533,34 @@
         <v>1790.464806816548</v>
       </c>
       <c r="P17" t="n">
-        <v>2285.699039259469</v>
+        <v>2133.460380981718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2925.806432519415</v>
+        <v>2773.567774241665</v>
       </c>
       <c r="R17" t="n">
         <v>2998.168283076506</v>
       </c>
       <c r="S17" t="n">
-        <v>2998.168283076506</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="T17" t="n">
-        <v>2998.168283076506</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="U17" t="n">
-        <v>2998.168283076506</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="V17" t="n">
-        <v>2989.043850945388</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="W17" t="n">
-        <v>2989.043850945388</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="X17" t="n">
-        <v>2989.043850945388</v>
+        <v>2521.701250121558</v>
       </c>
       <c r="Y17" t="n">
-        <v>2583.706580900279</v>
+        <v>2116.363980076449</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1777.694523094795</v>
+        <v>617.172052601547</v>
       </c>
       <c r="C18" t="n">
-        <v>1660.1886196123</v>
+        <v>499.6661491190517</v>
       </c>
       <c r="D18" t="n">
-        <v>1556.348661127585</v>
+        <v>395.8261906343367</v>
       </c>
       <c r="E18" t="n">
-        <v>1451.646727400522</v>
+        <v>291.1242569072739</v>
       </c>
       <c r="F18" t="n">
-        <v>1358.000897083426</v>
+        <v>197.4784265901781</v>
       </c>
       <c r="G18" t="n">
-        <v>1264.877403215783</v>
+        <v>104.3549327225344</v>
       </c>
       <c r="H18" t="n">
-        <v>1220.485836154779</v>
+        <v>59.96336566153013</v>
       </c>
       <c r="I18" t="n">
-        <v>1235.867095493121</v>
+        <v>98.80193084428448</v>
       </c>
       <c r="J18" t="n">
-        <v>1301.603926259703</v>
+        <v>456.6412540804575</v>
       </c>
       <c r="K18" t="n">
-        <v>1426.658799465946</v>
+        <v>581.6961272867007</v>
       </c>
       <c r="L18" t="n">
-        <v>1602.337922159344</v>
+        <v>757.3752499800987</v>
       </c>
       <c r="M18" t="n">
-        <v>2203.121599719375</v>
+        <v>965.5299909923937</v>
       </c>
       <c r="N18" t="n">
-        <v>2419.126982141312</v>
+        <v>1181.53537341433</v>
       </c>
       <c r="O18" t="n">
-        <v>2613.118990260776</v>
+        <v>1375.527381533794</v>
       </c>
       <c r="P18" t="n">
-        <v>2765.673056149657</v>
+        <v>1528.081447422675</v>
       </c>
       <c r="Q18" t="n">
-        <v>2859.539539748715</v>
+        <v>1699.017069255466</v>
       </c>
       <c r="R18" t="n">
-        <v>2998.168283076506</v>
+        <v>1837.645812583258</v>
       </c>
       <c r="S18" t="n">
-        <v>2934.123539887654</v>
+        <v>1773.601069394406</v>
       </c>
       <c r="T18" t="n">
-        <v>2795.993277008391</v>
+        <v>1635.470806515143</v>
       </c>
       <c r="U18" t="n">
-        <v>2611.286283422419</v>
+        <v>1450.763812929171</v>
       </c>
       <c r="V18" t="n">
-        <v>2406.313144561685</v>
+        <v>1245.790674068437</v>
       </c>
       <c r="W18" t="n">
-        <v>2209.791767394903</v>
+        <v>1049.269296901654</v>
       </c>
       <c r="X18" t="n">
-        <v>2046.314421161566</v>
+        <v>885.7919506683173</v>
       </c>
       <c r="Y18" t="n">
-        <v>1906.621532514858</v>
+        <v>746.0990620216097</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1111.97629853919</v>
+        <v>1093.868748832748</v>
       </c>
       <c r="C19" t="n">
-        <v>940.0037354181061</v>
+        <v>921.8961857116637</v>
       </c>
       <c r="D19" t="n">
-        <v>776.6869625448768</v>
+        <v>758.5794128384345</v>
       </c>
       <c r="E19" t="n">
-        <v>610.4787566977303</v>
+        <v>592.371206991288</v>
       </c>
       <c r="F19" t="n">
-        <v>438.6169824722907</v>
+        <v>420.5094327658484</v>
       </c>
       <c r="G19" t="n">
-        <v>273.1399265201906</v>
+        <v>255.0323768137483</v>
       </c>
       <c r="H19" t="n">
         <v>136.2778003109547</v>
@@ -5673,13 +5673,13 @@
         <v>59.96336566153013</v>
       </c>
       <c r="J19" t="n">
-        <v>171.4973122125509</v>
+        <v>171.4973122125508</v>
       </c>
       <c r="K19" t="n">
-        <v>486.8335365657849</v>
+        <v>486.8335365657847</v>
       </c>
       <c r="L19" t="n">
-        <v>955.1673197500747</v>
+        <v>955.1673197500746</v>
       </c>
       <c r="M19" t="n">
         <v>1466.175265653859</v>
@@ -5703,22 +5703,22 @@
         <v>2829.654150386649</v>
       </c>
       <c r="T19" t="n">
-        <v>2607.754711084662</v>
+        <v>2589.64716137822</v>
       </c>
       <c r="U19" t="n">
-        <v>2327.612803335167</v>
+        <v>2309.505253628724</v>
       </c>
       <c r="V19" t="n">
-        <v>2045.901335943196</v>
+        <v>2027.793786236753</v>
       </c>
       <c r="W19" t="n">
-        <v>1771.048932115709</v>
+        <v>1752.941382409266</v>
       </c>
       <c r="X19" t="n">
-        <v>1528.485035561514</v>
+        <v>1510.377485855071</v>
       </c>
       <c r="Y19" t="n">
-        <v>1302.142267251256</v>
+        <v>1284.034717544813</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1914.766834050501</v>
+        <v>1169.52655588165</v>
       </c>
       <c r="C20" t="n">
-        <v>1487.866104063801</v>
+        <v>742.6258258949501</v>
       </c>
       <c r="D20" t="n">
-        <v>1064.573483248801</v>
+        <v>742.6258258949501</v>
       </c>
       <c r="E20" t="n">
-        <v>638.5965433966588</v>
+        <v>742.6258258949501</v>
       </c>
       <c r="F20" t="n">
-        <v>340.0254474121734</v>
+        <v>742.6258258949501</v>
       </c>
       <c r="G20" t="n">
         <v>340.0254474121734</v>
@@ -5755,19 +5755,19 @@
         <v>206.9638945736726</v>
       </c>
       <c r="K20" t="n">
-        <v>915.1020151197929</v>
+        <v>388.3228298624874</v>
       </c>
       <c r="L20" t="n">
-        <v>1146.090347501538</v>
+        <v>1103.838212418329</v>
       </c>
       <c r="M20" t="n">
-        <v>1408.255657547722</v>
+        <v>1366.003522464513</v>
       </c>
       <c r="N20" t="n">
-        <v>1675.412820257408</v>
+        <v>1633.160685174199</v>
       </c>
       <c r="O20" t="n">
-        <v>2417.459470318843</v>
+        <v>1883.262638283019</v>
       </c>
       <c r="P20" t="n">
         <v>2625.309288344454</v>
@@ -5785,19 +5785,19 @@
         <v>2998.168283076506</v>
       </c>
       <c r="U20" t="n">
-        <v>2739.95246838714</v>
+        <v>2802.823538750195</v>
       </c>
       <c r="V20" t="n">
-        <v>2739.95246838714</v>
+        <v>2802.823538750195</v>
       </c>
       <c r="W20" t="n">
-        <v>2739.95246838714</v>
+        <v>2406.432189050543</v>
       </c>
       <c r="X20" t="n">
-        <v>2739.95246838714</v>
+        <v>1994.71219021829</v>
       </c>
       <c r="Y20" t="n">
-        <v>2334.615198342031</v>
+        <v>1589.37492017318</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>98.80193084428448</v>
       </c>
       <c r="J21" t="n">
-        <v>164.5387616108665</v>
+        <v>456.6412540804575</v>
       </c>
       <c r="K21" t="n">
-        <v>289.5936348171097</v>
+        <v>581.6961272867007</v>
       </c>
       <c r="L21" t="n">
-        <v>465.2727575105076</v>
+        <v>757.3752499800987</v>
       </c>
       <c r="M21" t="n">
-        <v>673.4274985228026</v>
+        <v>965.5299909923937</v>
       </c>
       <c r="N21" t="n">
-        <v>889.4328809447391</v>
+        <v>1181.53537341433</v>
       </c>
       <c r="O21" t="n">
-        <v>1558.052020052433</v>
+        <v>1375.527381533794</v>
       </c>
       <c r="P21" t="n">
-        <v>1710.606085941314</v>
+        <v>1528.081447422675</v>
       </c>
       <c r="Q21" t="n">
-        <v>1804.472569540372</v>
+        <v>1699.017069255466</v>
       </c>
       <c r="R21" t="n">
         <v>1837.645812583258</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1093.868748832748</v>
+        <v>1111.97629853919</v>
       </c>
       <c r="C22" t="n">
-        <v>921.8961857116637</v>
+        <v>940.0037354181061</v>
       </c>
       <c r="D22" t="n">
-        <v>758.5794128384345</v>
+        <v>776.6869625448768</v>
       </c>
       <c r="E22" t="n">
-        <v>592.371206991288</v>
+        <v>610.4787566977303</v>
       </c>
       <c r="F22" t="n">
         <v>438.6169824722907</v>
@@ -5916,7 +5916,7 @@
         <v>486.8335365657847</v>
       </c>
       <c r="L22" t="n">
-        <v>955.1673197500746</v>
+        <v>955.1673197500743</v>
       </c>
       <c r="M22" t="n">
         <v>1466.175265653859</v>
@@ -5949,13 +5949,13 @@
         <v>2027.793786236753</v>
       </c>
       <c r="W22" t="n">
-        <v>1752.941382409266</v>
+        <v>1771.048932115709</v>
       </c>
       <c r="X22" t="n">
-        <v>1510.377485855071</v>
+        <v>1528.485035561514</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.034717544813</v>
+        <v>1302.142267251256</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.066234992991</v>
+        <v>2480.19953197004</v>
       </c>
       <c r="C23" t="n">
-        <v>1858.165505006291</v>
+        <v>2053.29880198334</v>
       </c>
       <c r="D23" t="n">
-        <v>1434.872884191291</v>
+        <v>1630.00618116834</v>
       </c>
       <c r="E23" t="n">
-        <v>1008.895944339149</v>
+        <v>1204.029241316197</v>
       </c>
       <c r="F23" t="n">
-        <v>583.7717625285489</v>
+        <v>778.9050595055976</v>
       </c>
       <c r="G23" t="n">
         <v>376.3046810228209</v>
@@ -5989,28 +5989,28 @@
         <v>127.7368786978869</v>
       </c>
       <c r="J23" t="n">
-        <v>634.9723468919462</v>
+        <v>321.4833582052917</v>
       </c>
       <c r="K23" t="n">
-        <v>1567.246544943121</v>
+        <v>1253.757556256467</v>
       </c>
       <c r="L23" t="n">
-        <v>1798.234877324866</v>
+        <v>1484.745888638211</v>
       </c>
       <c r="M23" t="n">
-        <v>2060.400187371051</v>
+        <v>1746.911198684396</v>
       </c>
       <c r="N23" t="n">
-        <v>2327.557350080736</v>
+        <v>2014.068361394082</v>
       </c>
       <c r="O23" t="n">
-        <v>2994.093356138426</v>
+        <v>3146.332014416178</v>
       </c>
       <c r="P23" t="n">
-        <v>3947.422061514093</v>
+        <v>4099.660719791845</v>
       </c>
       <c r="Q23" t="n">
-        <v>4587.52945477404</v>
+        <v>4739.768113051791</v>
       </c>
       <c r="R23" t="n">
         <v>4812.129963608882</v>
@@ -6034,7 +6034,7 @@
         <v>3110.251869329631</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.914599284521</v>
+        <v>2900.04789626157</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>96.24259927217763</v>
       </c>
       <c r="I24" t="n">
-        <v>111.6238586105201</v>
+        <v>135.081164454932</v>
       </c>
       <c r="J24" t="n">
-        <v>177.3606893771021</v>
+        <v>492.9204876911051</v>
       </c>
       <c r="K24" t="n">
-        <v>302.4155625833453</v>
+        <v>617.9753608973482</v>
       </c>
       <c r="L24" t="n">
-        <v>870.7236218244788</v>
+        <v>793.6544835907462</v>
       </c>
       <c r="M24" t="n">
-        <v>1078.878362836774</v>
+        <v>1001.809224603041</v>
       </c>
       <c r="N24" t="n">
-        <v>1294.88374525871</v>
+        <v>1217.814607024978</v>
       </c>
       <c r="O24" t="n">
-        <v>1488.875753378174</v>
+        <v>1411.806615144442</v>
       </c>
       <c r="P24" t="n">
-        <v>1641.429819267055</v>
+        <v>1564.360681033323</v>
       </c>
       <c r="Q24" t="n">
         <v>1735.296302866113</v>
@@ -6189,7 +6189,7 @@
         <v>1789.220616019915</v>
       </c>
       <c r="X25" t="n">
-        <v>1564.764269172161</v>
+        <v>1546.65671946572</v>
       </c>
       <c r="Y25" t="n">
         <v>1338.421500861903</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2477.950227159414</v>
+        <v>2172.600994461712</v>
       </c>
       <c r="C26" t="n">
-        <v>2051.049497172714</v>
+        <v>1745.700264475012</v>
       </c>
       <c r="D26" t="n">
-        <v>1627.756876357714</v>
+        <v>1322.407643660012</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.779936505572</v>
+        <v>896.4307038078697</v>
       </c>
       <c r="F26" t="n">
         <v>776.6557546949721</v>
@@ -6229,22 +6229,22 @@
         <v>240.9938233736946</v>
       </c>
       <c r="K26" t="n">
-        <v>531.5915586037499</v>
+        <v>1141.292315725188</v>
       </c>
       <c r="L26" t="n">
-        <v>1694.758577565457</v>
+        <v>1372.280648106932</v>
       </c>
       <c r="M26" t="n">
-        <v>2857.925596527163</v>
+        <v>1634.445958153117</v>
       </c>
       <c r="N26" t="n">
-        <v>4021.09261548887</v>
+        <v>1901.603120862803</v>
       </c>
       <c r="O26" t="n">
-        <v>4271.19456859769</v>
+        <v>3033.866773884899</v>
       </c>
       <c r="P26" t="n">
-        <v>4479.044386623301</v>
+        <v>3987.195479260566</v>
       </c>
       <c r="Q26" t="n">
         <v>4627.302872520512</v>
@@ -6256,22 +6256,22 @@
         <v>4634.917688954907</v>
       </c>
       <c r="T26" t="n">
-        <v>4634.917688954907</v>
+        <v>4421.603206893374</v>
       </c>
       <c r="U26" t="n">
-        <v>4468.73662490171</v>
+        <v>4163.387392204007</v>
       </c>
       <c r="V26" t="n">
-        <v>4111.247210027959</v>
+        <v>3805.897977330257</v>
       </c>
       <c r="W26" t="n">
-        <v>3714.855860328306</v>
+        <v>3409.506627630604</v>
       </c>
       <c r="X26" t="n">
-        <v>3303.135861496053</v>
+        <v>2997.786628798352</v>
       </c>
       <c r="Y26" t="n">
-        <v>2897.798591450944</v>
+        <v>2592.449358753242</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.99329446155205</v>
       </c>
       <c r="I27" t="n">
-        <v>109.3745537998946</v>
+        <v>132.8318596443064</v>
       </c>
       <c r="J27" t="n">
-        <v>175.1113845664766</v>
+        <v>490.6711828804795</v>
       </c>
       <c r="K27" t="n">
-        <v>300.1662577727197</v>
+        <v>615.7260560867227</v>
       </c>
       <c r="L27" t="n">
-        <v>475.8453804661177</v>
+        <v>791.4051787801207</v>
       </c>
       <c r="M27" t="n">
-        <v>684.0001214784127</v>
+        <v>999.5599197924156</v>
       </c>
       <c r="N27" t="n">
-        <v>900.0055039003491</v>
+        <v>1215.565302214352</v>
       </c>
       <c r="O27" t="n">
-        <v>1093.997512019813</v>
+        <v>1409.557310333816</v>
       </c>
       <c r="P27" t="n">
-        <v>1744.636014741336</v>
+        <v>1562.111376222697</v>
       </c>
       <c r="Q27" t="n">
-        <v>1838.502498340394</v>
+        <v>1733.046998055488</v>
       </c>
       <c r="R27" t="n">
         <v>1871.67574138328</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2813.472738540286</v>
+        <v>1127.898677632771</v>
       </c>
       <c r="C28" t="n">
-        <v>2641.500175419202</v>
+        <v>955.9261145116868</v>
       </c>
       <c r="D28" t="n">
-        <v>2478.183402545973</v>
+        <v>792.6093416384575</v>
       </c>
       <c r="E28" t="n">
-        <v>2311.975196698826</v>
+        <v>626.401135791311</v>
       </c>
       <c r="F28" t="n">
-        <v>2140.113422473387</v>
+        <v>454.5393615658714</v>
       </c>
       <c r="G28" t="n">
-        <v>1974.636366521287</v>
+        <v>289.0623056137713</v>
       </c>
       <c r="H28" t="n">
-        <v>1837.774240312051</v>
+        <v>152.2001794045354</v>
       </c>
       <c r="I28" t="n">
-        <v>1761.459805662626</v>
+        <v>93.99329446155205</v>
       </c>
       <c r="J28" t="n">
-        <v>1872.993752213647</v>
+        <v>205.5272410125727</v>
       </c>
       <c r="K28" t="n">
-        <v>2188.329976566881</v>
+        <v>520.8634653658066</v>
       </c>
       <c r="L28" t="n">
-        <v>2656.663759751171</v>
+        <v>989.1972485500964</v>
       </c>
       <c r="M28" t="n">
-        <v>3167.671705654956</v>
+        <v>1500.205194453881</v>
       </c>
       <c r="N28" t="n">
-        <v>3662.136264531001</v>
+        <v>1994.669753329927</v>
       </c>
       <c r="O28" t="n">
-        <v>4125.607935675219</v>
+        <v>2458.141424474145</v>
       </c>
       <c r="P28" t="n">
-        <v>4508.65706327419</v>
+        <v>2841.190552073117</v>
       </c>
       <c r="Q28" t="n">
-        <v>4699.664723077603</v>
+        <v>3032.198211876529</v>
       </c>
       <c r="R28" t="n">
-        <v>4699.664723077603</v>
+        <v>3020.227356978618</v>
       </c>
       <c r="S28" t="n">
-        <v>4543.121445285657</v>
+        <v>2863.684079186672</v>
       </c>
       <c r="T28" t="n">
-        <v>4309.251151085758</v>
+        <v>2623.677090178243</v>
       </c>
       <c r="U28" t="n">
-        <v>4029.109243336262</v>
+        <v>2343.535182428747</v>
       </c>
       <c r="V28" t="n">
-        <v>3747.397775944291</v>
+        <v>2061.823715036776</v>
       </c>
       <c r="W28" t="n">
-        <v>3472.545372116805</v>
+        <v>1786.971311209289</v>
       </c>
       <c r="X28" t="n">
-        <v>3229.98147556261</v>
+        <v>1544.407414655094</v>
       </c>
       <c r="Y28" t="n">
-        <v>3003.638707252352</v>
+        <v>1318.064646344837</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2477.950227159414</v>
+        <v>2172.600994461712</v>
       </c>
       <c r="C29" t="n">
         <v>2051.049497172714</v>
@@ -6466,49 +6466,49 @@
         <v>240.9938233736946</v>
       </c>
       <c r="K29" t="n">
-        <v>422.3527586625094</v>
+        <v>1173.268021424869</v>
       </c>
       <c r="L29" t="n">
-        <v>1585.519777624216</v>
+        <v>1404.256353806614</v>
       </c>
       <c r="M29" t="n">
-        <v>2705.686938249411</v>
+        <v>1666.421663852799</v>
       </c>
       <c r="N29" t="n">
-        <v>3868.853957211118</v>
+        <v>1933.578826562484</v>
       </c>
       <c r="O29" t="n">
-        <v>4118.955910319938</v>
+        <v>3033.866773884899</v>
       </c>
       <c r="P29" t="n">
-        <v>4326.805728345549</v>
+        <v>3987.195479260566</v>
       </c>
       <c r="Q29" t="n">
-        <v>4475.06421424276</v>
+        <v>4627.302872520512</v>
       </c>
       <c r="R29" t="n">
         <v>4699.664723077603</v>
       </c>
       <c r="S29" t="n">
-        <v>4699.664723077603</v>
+        <v>4634.917688954907</v>
       </c>
       <c r="T29" t="n">
-        <v>4486.350241016069</v>
+        <v>4421.603206893374</v>
       </c>
       <c r="U29" t="n">
-        <v>4228.134426326704</v>
+        <v>4163.387392204007</v>
       </c>
       <c r="V29" t="n">
-        <v>4111.247210027959</v>
+        <v>3805.897977330257</v>
       </c>
       <c r="W29" t="n">
-        <v>3714.855860328306</v>
+        <v>3409.506627630604</v>
       </c>
       <c r="X29" t="n">
-        <v>3303.135861496053</v>
+        <v>2997.786628798352</v>
       </c>
       <c r="Y29" t="n">
-        <v>2897.798591450944</v>
+        <v>2592.449358753242</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.99329446155205</v>
       </c>
       <c r="I30" t="n">
-        <v>109.3745537998946</v>
+        <v>132.8318596443064</v>
       </c>
       <c r="J30" t="n">
-        <v>175.1113845664766</v>
+        <v>490.6711828804795</v>
       </c>
       <c r="K30" t="n">
-        <v>300.1662577727197</v>
+        <v>615.7260560867227</v>
       </c>
       <c r="L30" t="n">
-        <v>475.8453804661177</v>
+        <v>791.4051787801207</v>
       </c>
       <c r="M30" t="n">
-        <v>684.0001214784127</v>
+        <v>999.5599197924156</v>
       </c>
       <c r="N30" t="n">
-        <v>900.0055039003491</v>
+        <v>1215.565302214352</v>
       </c>
       <c r="O30" t="n">
-        <v>1093.997512019813</v>
+        <v>1409.557310333816</v>
       </c>
       <c r="P30" t="n">
-        <v>1744.636014741336</v>
+        <v>1562.111376222697</v>
       </c>
       <c r="Q30" t="n">
-        <v>1838.502498340394</v>
+        <v>1733.046998055488</v>
       </c>
       <c r="R30" t="n">
         <v>1871.67574138328</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1127.898677632771</v>
+        <v>1146.006227339212</v>
       </c>
       <c r="C31" t="n">
-        <v>955.9261145116868</v>
+        <v>974.0336642181279</v>
       </c>
       <c r="D31" t="n">
-        <v>792.6093416384575</v>
+        <v>810.7168913448986</v>
       </c>
       <c r="E31" t="n">
         <v>644.5086854977521</v>
@@ -6657,16 +6657,16 @@
         <v>2343.535182428747</v>
       </c>
       <c r="V31" t="n">
-        <v>2061.823715036776</v>
+        <v>2079.931264743217</v>
       </c>
       <c r="W31" t="n">
-        <v>1786.971311209289</v>
+        <v>1805.07886091573</v>
       </c>
       <c r="X31" t="n">
-        <v>1544.407414655094</v>
+        <v>1562.514964361535</v>
       </c>
       <c r="Y31" t="n">
-        <v>1318.064646344837</v>
+        <v>1336.172196051278</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>125.4875738872614</v>
       </c>
       <c r="J32" t="n">
-        <v>240.9938233736946</v>
+        <v>632.7230420813207</v>
       </c>
       <c r="K32" t="n">
-        <v>1173.268021424869</v>
+        <v>1564.997240132496</v>
       </c>
       <c r="L32" t="n">
-        <v>1404.256353806614</v>
+        <v>2728.164259094202</v>
       </c>
       <c r="M32" t="n">
-        <v>2567.423372768321</v>
+        <v>3753.935452779184</v>
       </c>
       <c r="N32" t="n">
-        <v>3730.590391730027</v>
+        <v>4021.09261548887</v>
       </c>
       <c r="O32" t="n">
         <v>4271.19456859769</v>
@@ -6736,16 +6736,16 @@
         <v>4163.387392204007</v>
       </c>
       <c r="V32" t="n">
-        <v>4111.247210027959</v>
+        <v>3805.897977330257</v>
       </c>
       <c r="W32" t="n">
-        <v>3714.855860328306</v>
+        <v>3409.506627630604</v>
       </c>
       <c r="X32" t="n">
-        <v>3303.135861496053</v>
+        <v>2997.786628798352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2897.798591450944</v>
+        <v>2592.449358753242</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.99329446155205</v>
       </c>
       <c r="I33" t="n">
-        <v>109.3745537998946</v>
+        <v>132.8318596443064</v>
       </c>
       <c r="J33" t="n">
-        <v>175.1113845664766</v>
+        <v>490.6711828804795</v>
       </c>
       <c r="K33" t="n">
-        <v>300.1662577727197</v>
+        <v>615.7260560867227</v>
       </c>
       <c r="L33" t="n">
-        <v>475.8453804661177</v>
+        <v>791.4051787801207</v>
       </c>
       <c r="M33" t="n">
-        <v>684.0001214784127</v>
+        <v>999.5599197924156</v>
       </c>
       <c r="N33" t="n">
-        <v>1398.089940732991</v>
+        <v>1215.565302214352</v>
       </c>
       <c r="O33" t="n">
-        <v>1592.081948852455</v>
+        <v>1409.557310333816</v>
       </c>
       <c r="P33" t="n">
-        <v>1744.636014741336</v>
+        <v>1562.111376222697</v>
       </c>
       <c r="Q33" t="n">
-        <v>1838.502498340394</v>
+        <v>1733.046998055488</v>
       </c>
       <c r="R33" t="n">
         <v>1871.67574138328</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.898677632771</v>
+        <v>1146.006227339212</v>
       </c>
       <c r="C34" t="n">
-        <v>955.9261145116868</v>
+        <v>974.0336642181279</v>
       </c>
       <c r="D34" t="n">
-        <v>792.6093416384575</v>
+        <v>810.7168913448986</v>
       </c>
       <c r="E34" t="n">
-        <v>626.401135791311</v>
+        <v>644.5086854977521</v>
       </c>
       <c r="F34" t="n">
         <v>472.6469112723126</v>
@@ -6888,22 +6888,22 @@
         <v>2863.684079186672</v>
       </c>
       <c r="T34" t="n">
-        <v>2623.677090178243</v>
+        <v>2641.784639884684</v>
       </c>
       <c r="U34" t="n">
-        <v>2343.535182428747</v>
+        <v>2361.642732135188</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.823715036776</v>
+        <v>2079.931264743217</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.971311209289</v>
+        <v>1805.07886091573</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.407414655094</v>
+        <v>1562.514964361535</v>
       </c>
       <c r="Y34" t="n">
-        <v>1318.064646344837</v>
+        <v>1336.172196051278</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2443.920298359392</v>
+        <v>1315.441413983149</v>
       </c>
       <c r="C35" t="n">
-        <v>2017.019568372692</v>
+        <v>888.5406839964493</v>
       </c>
       <c r="D35" t="n">
-        <v>1593.726947557692</v>
+        <v>888.5406839964493</v>
       </c>
       <c r="E35" t="n">
-        <v>1167.75000770555</v>
+        <v>462.5637441443068</v>
       </c>
       <c r="F35" t="n">
-        <v>742.6258258949501</v>
+        <v>462.5637441443068</v>
       </c>
       <c r="G35" t="n">
-        <v>340.0254474121734</v>
+        <v>59.96336566153013</v>
       </c>
       <c r="H35" t="n">
         <v>59.96336566153013</v>
@@ -6937,28 +6937,28 @@
         <v>91.45764508723943</v>
       </c>
       <c r="J35" t="n">
-        <v>206.9638945736726</v>
+        <v>598.6931132812988</v>
       </c>
       <c r="K35" t="n">
-        <v>388.3228298624874</v>
+        <v>915.1978047096727</v>
       </c>
       <c r="L35" t="n">
-        <v>1130.369479923923</v>
+        <v>1146.186137091418</v>
       </c>
       <c r="M35" t="n">
-        <v>1392.534789970107</v>
+        <v>1408.351447137602</v>
       </c>
       <c r="N35" t="n">
-        <v>2134.581440031543</v>
+        <v>1675.508609847288</v>
       </c>
       <c r="O35" t="n">
-        <v>2569.698128596594</v>
+        <v>1925.610562956108</v>
       </c>
       <c r="P35" t="n">
-        <v>2777.547946622205</v>
+        <v>2133.460380981718</v>
       </c>
       <c r="Q35" t="n">
-        <v>2925.806432519415</v>
+        <v>2773.567774241665</v>
       </c>
       <c r="R35" t="n">
         <v>2998.168283076506</v>
@@ -6973,16 +6973,16 @@
         <v>2739.95246838714</v>
       </c>
       <c r="V35" t="n">
-        <v>2739.95246838714</v>
+        <v>2543.401126806585</v>
       </c>
       <c r="W35" t="n">
-        <v>2739.95246838714</v>
+        <v>2147.009777106932</v>
       </c>
       <c r="X35" t="n">
-        <v>2739.95246838714</v>
+        <v>1735.289778274679</v>
       </c>
       <c r="Y35" t="n">
-        <v>2739.95246838714</v>
+        <v>1735.289778274679</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>98.80193084428448</v>
       </c>
       <c r="J36" t="n">
-        <v>164.5387616108665</v>
+        <v>456.6412540804575</v>
       </c>
       <c r="K36" t="n">
-        <v>289.5936348171097</v>
+        <v>581.6961272867007</v>
       </c>
       <c r="L36" t="n">
-        <v>465.2727575105076</v>
+        <v>757.3752499800987</v>
       </c>
       <c r="M36" t="n">
-        <v>1148.054629511032</v>
+        <v>965.5299909923937</v>
       </c>
       <c r="N36" t="n">
-        <v>1364.060011932969</v>
+        <v>1181.53537341433</v>
       </c>
       <c r="O36" t="n">
-        <v>1558.052020052433</v>
+        <v>1375.527381533794</v>
       </c>
       <c r="P36" t="n">
-        <v>1710.606085941314</v>
+        <v>1528.081447422675</v>
       </c>
       <c r="Q36" t="n">
-        <v>1804.472569540372</v>
+        <v>1699.017069255466</v>
       </c>
       <c r="R36" t="n">
         <v>1837.645812583258</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1093.868748832748</v>
+        <v>1111.97629853919</v>
       </c>
       <c r="C37" t="n">
-        <v>921.8961857116637</v>
+        <v>940.0037354181061</v>
       </c>
       <c r="D37" t="n">
-        <v>758.5794128384345</v>
+        <v>776.6869625448768</v>
       </c>
       <c r="E37" t="n">
         <v>610.4787566977303</v>
@@ -7095,22 +7095,22 @@
         <v>59.96336566153013</v>
       </c>
       <c r="J37" t="n">
-        <v>171.4973122125507</v>
+        <v>171.4973122125509</v>
       </c>
       <c r="K37" t="n">
-        <v>486.8335365657845</v>
+        <v>486.8335365657849</v>
       </c>
       <c r="L37" t="n">
-        <v>955.1673197500742</v>
+        <v>955.1673197500747</v>
       </c>
       <c r="M37" t="n">
         <v>1466.175265653859</v>
       </c>
       <c r="N37" t="n">
-        <v>1960.639824529905</v>
+        <v>1960.639824529904</v>
       </c>
       <c r="O37" t="n">
-        <v>2424.111495674123</v>
+        <v>2424.111495674122</v>
       </c>
       <c r="P37" t="n">
         <v>2807.160623273094</v>
@@ -7125,22 +7125,22 @@
         <v>2829.654150386649</v>
       </c>
       <c r="T37" t="n">
-        <v>2589.64716137822</v>
+        <v>2607.754711084662</v>
       </c>
       <c r="U37" t="n">
-        <v>2309.505253628724</v>
+        <v>2327.612803335167</v>
       </c>
       <c r="V37" t="n">
-        <v>2027.793786236753</v>
+        <v>2045.901335943196</v>
       </c>
       <c r="W37" t="n">
-        <v>1752.941382409266</v>
+        <v>1771.048932115709</v>
       </c>
       <c r="X37" t="n">
-        <v>1510.377485855071</v>
+        <v>1528.485035561514</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.034717544813</v>
+        <v>1302.142267251256</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2163.858216608749</v>
+        <v>1339.026200911168</v>
       </c>
       <c r="C38" t="n">
-        <v>1736.957486622049</v>
+        <v>912.1254709244679</v>
       </c>
       <c r="D38" t="n">
-        <v>1313.664865807049</v>
+        <v>887.6879259549066</v>
       </c>
       <c r="E38" t="n">
         <v>887.6879259549066</v>
@@ -7174,25 +7174,25 @@
         <v>91.45764508723943</v>
       </c>
       <c r="J38" t="n">
-        <v>206.9638945736726</v>
+        <v>598.6931132812988</v>
       </c>
       <c r="K38" t="n">
-        <v>388.3228298624874</v>
+        <v>780.0520485701136</v>
       </c>
       <c r="L38" t="n">
-        <v>1130.369479923923</v>
+        <v>1146.186137091418</v>
       </c>
       <c r="M38" t="n">
-        <v>1392.534789970107</v>
+        <v>1408.351447137602</v>
       </c>
       <c r="N38" t="n">
-        <v>2134.581440031543</v>
+        <v>1675.508609847288</v>
       </c>
       <c r="O38" t="n">
-        <v>2417.459470318843</v>
+        <v>1925.610562956108</v>
       </c>
       <c r="P38" t="n">
-        <v>2625.309288344454</v>
+        <v>2133.460380981718</v>
       </c>
       <c r="Q38" t="n">
         <v>2773.567774241665</v>
@@ -7201,25 +7201,25 @@
         <v>2998.168283076506</v>
       </c>
       <c r="S38" t="n">
-        <v>2998.168283076506</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="T38" t="n">
-        <v>2998.168283076506</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="U38" t="n">
-        <v>2998.168283076506</v>
+        <v>2933.421248953811</v>
       </c>
       <c r="V38" t="n">
-        <v>2998.168283076506</v>
+        <v>2575.93183408006</v>
       </c>
       <c r="W38" t="n">
-        <v>2601.776933376853</v>
+        <v>2575.93183408006</v>
       </c>
       <c r="X38" t="n">
-        <v>2583.706580900279</v>
+        <v>2164.211835247807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2583.706580900279</v>
+        <v>1758.874565202698</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>98.80193084428448</v>
       </c>
       <c r="J39" t="n">
-        <v>164.5387616108665</v>
+        <v>456.6412540804575</v>
       </c>
       <c r="K39" t="n">
-        <v>289.5936348171097</v>
+        <v>581.6961272867007</v>
       </c>
       <c r="L39" t="n">
-        <v>465.2727575105076</v>
+        <v>757.3752499800987</v>
       </c>
       <c r="M39" t="n">
-        <v>1148.054629511032</v>
+        <v>965.5299909923937</v>
       </c>
       <c r="N39" t="n">
-        <v>1364.060011932969</v>
+        <v>1181.53537341433</v>
       </c>
       <c r="O39" t="n">
-        <v>1558.052020052433</v>
+        <v>1375.527381533794</v>
       </c>
       <c r="P39" t="n">
-        <v>1710.606085941314</v>
+        <v>1528.081447422675</v>
       </c>
       <c r="Q39" t="n">
-        <v>1804.472569540372</v>
+        <v>1699.017069255466</v>
       </c>
       <c r="R39" t="n">
         <v>1837.645812583258</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1105.839603730659</v>
+        <v>1111.97629853919</v>
       </c>
       <c r="C40" t="n">
-        <v>933.8670406095748</v>
+        <v>940.0037354181061</v>
       </c>
       <c r="D40" t="n">
-        <v>770.5502677363455</v>
+        <v>776.6869625448768</v>
       </c>
       <c r="E40" t="n">
-        <v>604.342061889199</v>
+        <v>610.4787566977303</v>
       </c>
       <c r="F40" t="n">
-        <v>432.4802876637594</v>
+        <v>438.6169824722907</v>
       </c>
       <c r="G40" t="n">
-        <v>267.0032317116593</v>
+        <v>273.1399265201906</v>
       </c>
       <c r="H40" t="n">
         <v>136.2778003109547</v>
@@ -7332,22 +7332,22 @@
         <v>59.96336566153013</v>
       </c>
       <c r="J40" t="n">
-        <v>171.4973122125509</v>
+        <v>171.4973122125508</v>
       </c>
       <c r="K40" t="n">
-        <v>486.8335365657849</v>
+        <v>486.8335365657847</v>
       </c>
       <c r="L40" t="n">
-        <v>955.1673197500747</v>
+        <v>955.1673197500745</v>
       </c>
       <c r="M40" t="n">
         <v>1466.175265653859</v>
       </c>
       <c r="N40" t="n">
-        <v>1960.639824529904</v>
+        <v>1960.639824529905</v>
       </c>
       <c r="O40" t="n">
-        <v>2424.111495674122</v>
+        <v>2424.111495674123</v>
       </c>
       <c r="P40" t="n">
         <v>2807.160623273094</v>
@@ -7356,28 +7356,28 @@
         <v>2998.168283076506</v>
       </c>
       <c r="R40" t="n">
-        <v>2998.168283076506</v>
+        <v>2986.197428178595</v>
       </c>
       <c r="S40" t="n">
-        <v>2841.62500528456</v>
+        <v>2847.761700093091</v>
       </c>
       <c r="T40" t="n">
-        <v>2601.618016276131</v>
+        <v>2607.754711084662</v>
       </c>
       <c r="U40" t="n">
-        <v>2321.476108526635</v>
+        <v>2327.612803335167</v>
       </c>
       <c r="V40" t="n">
-        <v>2039.764641134664</v>
+        <v>2045.901335943196</v>
       </c>
       <c r="W40" t="n">
-        <v>1764.912237307177</v>
+        <v>1771.048932115709</v>
       </c>
       <c r="X40" t="n">
-        <v>1522.348340752982</v>
+        <v>1528.485035561514</v>
       </c>
       <c r="Y40" t="n">
-        <v>1296.005572442725</v>
+        <v>1302.142267251256</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1310.67297608839</v>
+        <v>36.27923361064749</v>
       </c>
       <c r="C41" t="n">
-        <v>1310.67297608839</v>
+        <v>36.27923361064749</v>
       </c>
       <c r="D41" t="n">
-        <v>887.3803552733898</v>
+        <v>36.27923361064749</v>
       </c>
       <c r="E41" t="n">
-        <v>461.4034154212473</v>
+        <v>36.27923361064749</v>
       </c>
       <c r="F41" t="n">
         <v>36.27923361064749</v>
@@ -7417,19 +7417,19 @@
         <v>364.6386978116047</v>
       </c>
       <c r="L41" t="n">
-        <v>606.067100187772</v>
+        <v>595.6270301933496</v>
       </c>
       <c r="M41" t="n">
-        <v>868.2324102339567</v>
+        <v>857.7923402395343</v>
       </c>
       <c r="N41" t="n">
-        <v>1135.389572943642</v>
+        <v>1124.94950294922</v>
       </c>
       <c r="O41" t="n">
-        <v>1385.491526052462</v>
+        <v>1375.05145605804</v>
       </c>
       <c r="P41" t="n">
-        <v>1593.341344078073</v>
+        <v>1582.90127408365</v>
       </c>
       <c r="Q41" t="n">
         <v>1741.599829975284</v>
@@ -7438,25 +7438,25 @@
         <v>1813.961680532374</v>
       </c>
       <c r="S41" t="n">
-        <v>1813.961680532374</v>
+        <v>1749.214646409679</v>
       </c>
       <c r="T41" t="n">
-        <v>1813.961680532374</v>
+        <v>1749.214646409679</v>
       </c>
       <c r="U41" t="n">
-        <v>1813.961680532374</v>
+        <v>1749.214646409679</v>
       </c>
       <c r="V41" t="n">
-        <v>1813.961680532374</v>
+        <v>1391.725231535929</v>
       </c>
       <c r="W41" t="n">
-        <v>1813.961680532374</v>
+        <v>995.3338818362754</v>
       </c>
       <c r="X41" t="n">
-        <v>1402.241681700122</v>
+        <v>861.4648679472873</v>
       </c>
       <c r="Y41" t="n">
-        <v>1310.67297608839</v>
+        <v>456.1275979021776</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>75.11779879340185</v>
       </c>
       <c r="J42" t="n">
-        <v>140.8546295599838</v>
+        <v>432.9571220295749</v>
       </c>
       <c r="K42" t="n">
-        <v>265.909502766227</v>
+        <v>558.0119952358181</v>
       </c>
       <c r="L42" t="n">
-        <v>441.588625459625</v>
+        <v>733.691117929216</v>
       </c>
       <c r="M42" t="n">
-        <v>649.7433664719199</v>
+        <v>941.845858941511</v>
       </c>
       <c r="N42" t="n">
-        <v>865.7487488938564</v>
+        <v>1157.851241363448</v>
       </c>
       <c r="O42" t="n">
-        <v>1059.74075701332</v>
+        <v>1351.843249482912</v>
       </c>
       <c r="P42" t="n">
-        <v>1508.696272945083</v>
+        <v>1504.397315371793</v>
       </c>
       <c r="Q42" t="n">
         <v>1675.332937204583</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>191.3736136805873</v>
+        <v>866.3724224301982</v>
       </c>
       <c r="C43" t="n">
-        <v>191.3736136805873</v>
+        <v>694.3998593091142</v>
       </c>
       <c r="D43" t="n">
-        <v>191.3736136805873</v>
+        <v>531.0830864358849</v>
       </c>
       <c r="E43" t="n">
-        <v>191.3736136805873</v>
+        <v>364.8748805887384</v>
       </c>
       <c r="F43" t="n">
-        <v>36.27923361064749</v>
+        <v>201.7562895627476</v>
       </c>
       <c r="G43" t="n">
         <v>36.27923361064749</v>
@@ -7572,49 +7572,49 @@
         <v>69.89146351344726</v>
       </c>
       <c r="K43" t="n">
-        <v>385.2276878666812</v>
+        <v>137.9450787526591</v>
       </c>
       <c r="L43" t="n">
-        <v>477.172577459806</v>
+        <v>357.1680472859089</v>
       </c>
       <c r="M43" t="n">
-        <v>926.1280933915687</v>
+        <v>806.1235632176715</v>
       </c>
       <c r="N43" t="n">
-        <v>1022.559729425735</v>
+        <v>1255.079079149434</v>
       </c>
       <c r="O43" t="n">
-        <v>1239.90489312999</v>
+        <v>1704.034595081197</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.954020728962</v>
+        <v>1774.327518106861</v>
       </c>
       <c r="Q43" t="n">
         <v>1813.961680532374</v>
       </c>
       <c r="R43" t="n">
-        <v>1801.990825634463</v>
+        <v>1813.961680532374</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.447547842517</v>
+        <v>1813.961680532374</v>
       </c>
       <c r="T43" t="n">
-        <v>1405.440558834089</v>
+        <v>1573.954691523946</v>
       </c>
       <c r="U43" t="n">
-        <v>1125.298651084593</v>
+        <v>1573.954691523946</v>
       </c>
       <c r="V43" t="n">
-        <v>1125.298651084593</v>
+        <v>1573.954691523946</v>
       </c>
       <c r="W43" t="n">
-        <v>850.4462472571058</v>
+        <v>1299.102287696459</v>
       </c>
       <c r="X43" t="n">
-        <v>607.8823507029109</v>
+        <v>1056.538391142264</v>
       </c>
       <c r="Y43" t="n">
-        <v>381.539582392653</v>
+        <v>1056.538391142264</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>996.904411655012</v>
+        <v>1145.842423830767</v>
       </c>
       <c r="C44" t="n">
-        <v>885.5487942777897</v>
+        <v>718.9416938440675</v>
       </c>
       <c r="D44" t="n">
-        <v>462.2561734627899</v>
+        <v>718.9416938440675</v>
       </c>
       <c r="E44" t="n">
-        <v>36.27923361064749</v>
+        <v>718.9416938440675</v>
       </c>
       <c r="F44" t="n">
-        <v>36.27923361064749</v>
+        <v>718.9416938440675</v>
       </c>
       <c r="G44" t="n">
-        <v>36.27923361064749</v>
+        <v>316.3413153612908</v>
       </c>
       <c r="H44" t="n">
         <v>36.27923361064749</v>
@@ -7648,52 +7648,52 @@
         <v>67.77351303635679</v>
       </c>
       <c r="J44" t="n">
-        <v>183.27976252279</v>
+        <v>193.7198325172124</v>
       </c>
       <c r="K44" t="n">
-        <v>364.6386978116047</v>
+        <v>375.0787678060271</v>
       </c>
       <c r="L44" t="n">
-        <v>595.6270301933496</v>
+        <v>606.067100187772</v>
       </c>
       <c r="M44" t="n">
-        <v>857.7923402395343</v>
+        <v>868.2324102339567</v>
       </c>
       <c r="N44" t="n">
-        <v>1124.94950294922</v>
+        <v>1135.389572943642</v>
       </c>
       <c r="O44" t="n">
-        <v>1375.05145605804</v>
+        <v>1385.491526052462</v>
       </c>
       <c r="P44" t="n">
-        <v>1582.90127408365</v>
+        <v>1593.341344078073</v>
       </c>
       <c r="Q44" t="n">
-        <v>1731.159759980861</v>
+        <v>1741.599829975284</v>
       </c>
       <c r="R44" t="n">
         <v>1813.961680532374</v>
       </c>
       <c r="S44" t="n">
-        <v>1813.961680532374</v>
+        <v>1749.214646409679</v>
       </c>
       <c r="T44" t="n">
-        <v>1813.961680532374</v>
+        <v>1749.214646409679</v>
       </c>
       <c r="U44" t="n">
-        <v>1813.961680532374</v>
+        <v>1749.214646409679</v>
       </c>
       <c r="V44" t="n">
-        <v>1813.961680532374</v>
+        <v>1749.214646409679</v>
       </c>
       <c r="W44" t="n">
-        <v>1813.961680532374</v>
+        <v>1352.823296710026</v>
       </c>
       <c r="X44" t="n">
-        <v>1402.241681700122</v>
+        <v>1145.842423830767</v>
       </c>
       <c r="Y44" t="n">
-        <v>996.904411655012</v>
+        <v>1145.842423830767</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>593.4879205506635</v>
+        <v>593.4879205506643</v>
       </c>
       <c r="C45" t="n">
-        <v>475.9820170681683</v>
+        <v>475.9820170681691</v>
       </c>
       <c r="D45" t="n">
-        <v>372.1420585834533</v>
+        <v>372.1420585834541</v>
       </c>
       <c r="E45" t="n">
-        <v>267.4401248563905</v>
+        <v>267.4401248563913</v>
       </c>
       <c r="F45" t="n">
-        <v>173.7942945392946</v>
+        <v>173.7942945392955</v>
       </c>
       <c r="G45" t="n">
-        <v>80.67080067165089</v>
+        <v>80.67080067165176</v>
       </c>
       <c r="H45" t="n">
-        <v>36.27923361064663</v>
+        <v>36.27923361064749</v>
       </c>
       <c r="I45" t="n">
-        <v>51.66049294898914</v>
+        <v>75.11779879340185</v>
       </c>
       <c r="J45" t="n">
-        <v>117.3973237155711</v>
+        <v>432.9571220295749</v>
       </c>
       <c r="K45" t="n">
-        <v>444.1351837115744</v>
+        <v>558.0119952358181</v>
       </c>
       <c r="L45" t="n">
-        <v>619.8143064049724</v>
+        <v>733.691117929216</v>
       </c>
       <c r="M45" t="n">
-        <v>827.9690474172673</v>
+        <v>941.845858941511</v>
       </c>
       <c r="N45" t="n">
-        <v>1043.974429839204</v>
+        <v>1157.851241363448</v>
       </c>
       <c r="O45" t="n">
-        <v>1237.966437958668</v>
+        <v>1351.843249482912</v>
       </c>
       <c r="P45" t="n">
-        <v>1686.921953890431</v>
+        <v>1504.397315371793</v>
       </c>
       <c r="Q45" t="n">
-        <v>1780.788437489488</v>
+        <v>1675.332937204583</v>
       </c>
       <c r="R45" t="n">
-        <v>1813.961680532374</v>
+        <v>1813.961680532375</v>
       </c>
       <c r="S45" t="n">
-        <v>1749.916937343522</v>
+        <v>1749.916937343523</v>
       </c>
       <c r="T45" t="n">
-        <v>1611.786674464259</v>
+        <v>1611.78667446426</v>
       </c>
       <c r="U45" t="n">
-        <v>1427.079680878287</v>
+        <v>1427.079680878288</v>
       </c>
       <c r="V45" t="n">
         <v>1222.106542017554</v>
       </c>
       <c r="W45" t="n">
-        <v>1025.585164850771</v>
+        <v>1025.585164850772</v>
       </c>
       <c r="X45" t="n">
-        <v>862.1078186174338</v>
+        <v>862.1078186174346</v>
       </c>
       <c r="Y45" t="n">
-        <v>722.4149299707262</v>
+        <v>722.414929970727</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>848.6609589656535</v>
+        <v>750.8425474151232</v>
       </c>
       <c r="C46" t="n">
-        <v>676.6883958445695</v>
+        <v>750.8425474151232</v>
       </c>
       <c r="D46" t="n">
-        <v>676.6883958445695</v>
+        <v>587.525774541894</v>
       </c>
       <c r="E46" t="n">
-        <v>510.4801899974231</v>
+        <v>421.3175686947475</v>
       </c>
       <c r="F46" t="n">
-        <v>338.6184157719835</v>
+        <v>249.455794469308</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1413598198834</v>
+        <v>249.455794469308</v>
       </c>
       <c r="H46" t="n">
-        <v>36.27923361064749</v>
+        <v>112.593668260072</v>
       </c>
       <c r="I46" t="n">
         <v>36.27923361064749</v>
       </c>
       <c r="J46" t="n">
-        <v>69.89146351344726</v>
+        <v>147.8131801616682</v>
       </c>
       <c r="K46" t="n">
-        <v>137.9450787526591</v>
+        <v>215.86679540088</v>
       </c>
       <c r="L46" t="n">
-        <v>229.889968345784</v>
+        <v>307.8116849940048</v>
       </c>
       <c r="M46" t="n">
-        <v>341.993861266465</v>
+        <v>756.7672009257675</v>
       </c>
       <c r="N46" t="n">
-        <v>790.9493771982277</v>
+        <v>1205.72271685753</v>
       </c>
       <c r="O46" t="n">
-        <v>1239.90489312999</v>
+        <v>1552.661097703298</v>
       </c>
       <c r="P46" t="n">
         <v>1622.954020728962</v>
@@ -7839,19 +7839,19 @@
         <v>1645.447547842517</v>
       </c>
       <c r="U46" t="n">
-        <v>1507.733592542172</v>
+        <v>1365.305640093022</v>
       </c>
       <c r="V46" t="n">
-        <v>1507.733592542172</v>
+        <v>1365.305640093022</v>
       </c>
       <c r="W46" t="n">
-        <v>1507.733592542172</v>
+        <v>1365.305640093022</v>
       </c>
       <c r="X46" t="n">
-        <v>1265.169695987977</v>
+        <v>1167.351284437447</v>
       </c>
       <c r="Y46" t="n">
-        <v>1038.826927677719</v>
+        <v>941.0085161271888</v>
       </c>
     </row>
   </sheetData>
@@ -7987,10 +7987,10 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>65.54757303225151</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>64.25992043664672</v>
       </c>
       <c r="O2" t="n">
         <v>65.50726948884378</v>
@@ -7999,7 +7999,7 @@
         <v>65.69167194305098</v>
       </c>
       <c r="Q2" t="n">
-        <v>63.10497220679875</v>
+        <v>64.24098473741773</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>40.06955035784532</v>
       </c>
       <c r="K3" t="n">
-        <v>49.37953143553405</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>51.21309064514766</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>51.28819985504191</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>49.88715133764835</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R3" t="n">
         <v>51.78922952696383</v>
@@ -8139,25 +8139,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>49.08096458553168</v>
+        <v>47.9449520549127</v>
       </c>
       <c r="L4" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
-        <v>49.55573749368652</v>
+        <v>50.69175002430551</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>50.61549763124414</v>
       </c>
       <c r="P4" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.73587289760464</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>64.25992043664672</v>
       </c>
       <c r="O5" t="n">
-        <v>64.37125695822481</v>
+        <v>65.50726948884378</v>
       </c>
       <c r="P5" t="n">
-        <v>65.69167194305098</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>64.24098473741773</v>
@@ -8294,7 +8294,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>48.72742446615302</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,16 +8303,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>50.07707811452869</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>50.15218732442293</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>49.88715133764835</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>50.86334842179818</v>
@@ -8376,13 +8376,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>47.9449520549127</v>
       </c>
       <c r="L7" t="n">
         <v>21.91875989570122</v>
       </c>
       <c r="M7" t="n">
-        <v>49.55573749368652</v>
+        <v>50.69175002430551</v>
       </c>
       <c r="N7" t="n">
         <v>48.86521110842008</v>
@@ -8391,7 +8391,7 @@
         <v>50.61549763124414</v>
       </c>
       <c r="P7" t="n">
-        <v>50.49711079080617</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q7" t="n">
         <v>24.61956276478495</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>63.88091092762902</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>65.29234003482364</v>
+        <v>66.42835256544261</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>65.54757303225151</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>65.39593296726571</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>64.37125695822481</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8476,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>63.14896002761616</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>48.72742446615302</v>
+        <v>47.59141193553404</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>50.51554396615302</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8549,7 +8549,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>41.22927722934064</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>50.86334842179818</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>48.75306611672156</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>49.08096458553168</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>50.03507002852091</v>
       </c>
       <c r="M10" t="n">
         <v>49.55573749368652</v>
       </c>
       <c r="N10" t="n">
-        <v>48.86521110842008</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O10" t="n">
-        <v>50.61549763124414</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P10" t="n">
-        <v>50.49711079080617</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q10" t="n">
         <v>24.61956276478495</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10.54552524689245</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>10.54552524689254</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>208.0625700636877</v>
+        <v>77.84761437750817</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>360.6167942814526</v>
       </c>
       <c r="M13" t="n">
-        <v>2.205359889680281</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>356.08472716929</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>366.8547162532818</v>
+        <v>366.8547162532817</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>84.44087047308668</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>10.54552524689245</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10.5455252468914</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>37.91909516669767</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>358.6757902350554</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>360.6167942814524</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>355.0333843341415</v>
       </c>
       <c r="N16" t="n">
-        <v>356.0847271692897</v>
+        <v>356.08472716929</v>
       </c>
       <c r="O16" t="n">
-        <v>366.8547162532815</v>
+        <v>366.8547162532817</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.9803061538251</v>
+        <v>49.85491140596403</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>290.287287290212</v>
+        <v>136.5108647874334</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>396.5948854017535</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9403,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>532.1001871285914</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>489.4212628021174</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>496.9138353056722</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>539.5927596321461</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>479.4213444325553</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>79.03053537471874</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>420.6404575241107</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>396.594885401753</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>77.84761437750748</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9877,25 +9877,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>110.3422221628693</v>
+        <v>726.2015727905841</v>
       </c>
       <c r="L26" t="n">
-        <v>941.5946329090524</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>910.102736278305</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>905.0604608606272</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>503.1155927602441</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>941.5946329090523</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>866.6685359383948</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>905.0604608606272</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>858.7737315288831</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>503.1155927602441</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>941.5946329090523</v>
       </c>
       <c r="M32" t="n">
-        <v>910.102736278305</v>
+        <v>771.3190743826235</v>
       </c>
       <c r="N32" t="n">
-        <v>905.0604608606272</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>293.4365896553965</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>503.115592760244</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>136.5108647874335</v>
       </c>
       <c r="L35" t="n">
-        <v>516.2205229087782</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>479.6863508603532</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>186.8835711679106</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>479.4213444325553</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>516.2205229087782</v>
+        <v>136.5108647874335</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>479.6863508603532</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>33.10714866513206</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>479.4213444325553</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10998,7 +10998,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>315.9153581548555</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>10.54552524689132</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>10.54552524689137</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>299.3954040837189</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.50523299034546</v>
+        <v>77.84761437750748</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>128.5637161011363</v>
       </c>
       <c r="M43" t="n">
         <v>355.0333843341413</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>356.0847271692897</v>
       </c>
       <c r="O43" t="n">
-        <v>132.904865518426</v>
+        <v>366.8547162532815</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>10.54552524689132</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>10.5455252468914</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>203.7201886765254</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>299.3954040837189</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>77.84761437750748</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11463,16 +11463,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>14.77921967648305</v>
+        <v>355.0333843341413</v>
       </c>
       <c r="N46" t="n">
         <v>356.0847271692897</v>
       </c>
       <c r="O46" t="n">
-        <v>366.8547162532815</v>
+        <v>263.8071050553068</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>89.41559016646261</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5743746979489</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>277.2614609331368</v>
@@ -23311,7 +23311,7 @@
         <v>64.09956378146836</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1813372409181</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.6336565424721</v>
@@ -23320,10 +23320,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>278.7755610409703</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>153.2405592167073</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.55129030293031</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9778450140267</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.6069191183444</v>
       </c>
       <c r="U13" t="n">
         <v>277.3404886720007</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>124.6664932261846</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>200.932951999125</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>307.7902982751764</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>255.6336565424721</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4935049471435</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.55129030293031</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>154.9778450140267</v>
       </c>
       <c r="T16" t="n">
-        <v>237.6069191183444</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3404886720007</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.1729681263391</v>
+        <v>98.62602524216041</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>43.60948020874196</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.1813372409181</v>
@@ -23791,13 +23791,13 @@
         <v>255.6336565424721</v>
       </c>
       <c r="V17" t="n">
-        <v>344.8813329152064</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>17.92647420937791</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>17.92647420937766</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>125.2875549678532</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5743746979489</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>211.1813372409181</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>62.24235965942441</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>17.92647420937791</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>17.92647420937789</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>193.1819640072782</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>193.1819640072784</v>
       </c>
     </row>
     <row r="24">
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>17.92647420937709</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>17.92647420937703</v>
       </c>
     </row>
     <row r="26">
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>302.2957403707251</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.1813372409181</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>91.11440312980648</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>17.92647420937679</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.07532786044527</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>302.2957403707251</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>238.1961765892559</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>17.92647420937666</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>17.92647420937652</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>302.2957403707248</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>302.2957403707252</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>17.92647420937672</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>17.92647420937632</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.5780323211436</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>159.3286925602632</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>17.92647420937789</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>17.92647420937766</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>394.866525086984</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>211.1813372409181</v>
@@ -25450,16 +25450,16 @@
         <v>255.6336565424721</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>389.7131498921219</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>6.075327860445952</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>17.92647420937749</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.5743746979489</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>211.1813372409181</v>
@@ -25687,16 +25687,16 @@
         <v>255.6336565424721</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>275.072475093832</v>
       </c>
       <c r="Y41" t="n">
-        <v>310.6308787890437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>16.59972021394475</v>
+        <v>8.655751367454286</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8222853925791</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>135.4935049471435</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.9778450140267</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3404886720007</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>312.3896614833828</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.5743746979489</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.1813372409181</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>202.6917346934642</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.8222853925791</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>75.55129030293031</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>237.6069191183444</v>
       </c>
       <c r="U46" t="n">
-        <v>141.0036729246588</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26088,7 +26088,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>44.16344548963392</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>330545.3255349586</v>
+        <v>330545.3255349587</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>663891.6401132954</v>
+        <v>663891.6401132953</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>663891.6401132952</v>
+        <v>663891.6401132953</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488982.2199691901</v>
+        <v>488982.21996919</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>330545.3255349587</v>
+        <v>330545.3255349586</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080931</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="C2" t="n">
-        <v>422270.9343080933</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="D2" t="n">
         <v>422270.934308093</v>
@@ -26325,31 +26325,31 @@
         <v>222951.1547110953</v>
       </c>
       <c r="F2" t="n">
-        <v>222951.1547110954</v>
+        <v>222951.1547110953</v>
       </c>
       <c r="G2" t="n">
         <v>309246.3290422555</v>
       </c>
       <c r="H2" t="n">
-        <v>309246.3290422557</v>
+        <v>309246.3290422555</v>
       </c>
       <c r="I2" t="n">
         <v>410810.48251399</v>
       </c>
       <c r="J2" t="n">
-        <v>404513.5264800551</v>
+        <v>404513.5264800556</v>
       </c>
       <c r="K2" t="n">
-        <v>404513.5264800555</v>
+        <v>404513.5264800554</v>
       </c>
       <c r="L2" t="n">
-        <v>404513.5264800555</v>
+        <v>404513.5264800554</v>
       </c>
       <c r="M2" t="n">
-        <v>309246.3290422556</v>
+        <v>309246.3290422554</v>
       </c>
       <c r="N2" t="n">
-        <v>309246.3290422556</v>
+        <v>309246.3290422555</v>
       </c>
       <c r="O2" t="n">
         <v>222951.1547110952</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>317613.7293869761</v>
       </c>
       <c r="C4" t="n">
-        <v>317613.729386976</v>
+        <v>317613.7293869761</v>
       </c>
       <c r="D4" t="n">
-        <v>317613.729386976</v>
+        <v>317613.7293869761</v>
       </c>
       <c r="E4" t="n">
         <v>15731.76550350773</v>
       </c>
       <c r="F4" t="n">
-        <v>15731.76550350768</v>
+        <v>15731.76550350772</v>
       </c>
       <c r="G4" t="n">
         <v>52347.30446799742</v>
       </c>
       <c r="H4" t="n">
-        <v>52347.30446799744</v>
+        <v>52347.30446799743</v>
       </c>
       <c r="I4" t="n">
-        <v>95441.55913128357</v>
+        <v>95441.55913128359</v>
       </c>
       <c r="J4" t="n">
         <v>92769.72445680456</v>
       </c>
       <c r="K4" t="n">
-        <v>92769.72445680454</v>
+        <v>92769.72445680457</v>
       </c>
       <c r="L4" t="n">
         <v>92769.72445680454</v>
       </c>
       <c r="M4" t="n">
-        <v>52347.30446799742</v>
+        <v>52347.30446799743</v>
       </c>
       <c r="N4" t="n">
-        <v>52347.30446799743</v>
+        <v>52347.30446799741</v>
       </c>
       <c r="O4" t="n">
         <v>15731.76550350768</v>
       </c>
       <c r="P4" t="n">
-        <v>15731.76550350769</v>
+        <v>15731.76550350768</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>36906.38133073856</v>
       </c>
       <c r="F5" t="n">
-        <v>36906.38133073854</v>
+        <v>36906.38133073856</v>
       </c>
       <c r="G5" t="n">
         <v>54906.32168940934</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59897.71106440062</v>
+        <v>59897.71106440072</v>
       </c>
       <c r="C6" t="n">
-        <v>69320.1332650418</v>
+        <v>69320.13326504167</v>
       </c>
       <c r="D6" t="n">
-        <v>69320.13326504157</v>
+        <v>69320.1332650415</v>
       </c>
       <c r="E6" t="n">
-        <v>-300689.5352802403</v>
+        <v>-301376.8448650574</v>
       </c>
       <c r="F6" t="n">
-        <v>170313.0078768491</v>
+        <v>169625.6982920317</v>
       </c>
       <c r="G6" t="n">
-        <v>120849.3862202716</v>
+        <v>120459.6462021136</v>
       </c>
       <c r="H6" t="n">
-        <v>201992.7028848489</v>
+        <v>201602.9628666907</v>
       </c>
       <c r="I6" t="n">
-        <v>112297.7581369925</v>
+        <v>112258.2393377025</v>
       </c>
       <c r="J6" t="n">
-        <v>230974.7344458245</v>
+        <v>230913.5020050387</v>
       </c>
       <c r="K6" t="n">
-        <v>230974.734445825</v>
+        <v>230913.5020050385</v>
       </c>
       <c r="L6" t="n">
-        <v>230974.734445825</v>
+        <v>230913.5020050385</v>
       </c>
       <c r="M6" t="n">
-        <v>201992.7028848489</v>
+        <v>201602.9628666906</v>
       </c>
       <c r="N6" t="n">
-        <v>201992.7028848489</v>
+        <v>201602.9628666907</v>
       </c>
       <c r="O6" t="n">
-        <v>170313.0078768489</v>
+        <v>169625.6982920318</v>
       </c>
       <c r="P6" t="n">
-        <v>170313.007876849</v>
+        <v>169625.6982920317</v>
       </c>
     </row>
   </sheetData>
@@ -26801,7 +26801,7 @@
         <v>453.4904201330939</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4904201330936</v>
+        <v>453.4904201330939</v>
       </c>
       <c r="G4" t="n">
         <v>749.5420707691266</v>
@@ -27466,16 +27466,16 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>78.89006842480455</v>
       </c>
       <c r="F3" t="n">
-        <v>67.94452604893732</v>
+        <v>64.5930618811052</v>
       </c>
       <c r="G3" t="n">
         <v>64.99692393175235</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>24.72602217249382</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.39469483153834</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
         <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>154.80420398674</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
         <v>202.9234074721264</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>160.1479988921253</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27548,13 +27548,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>145.3783105181976</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>136.4780898758905</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2419956741075</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>70.65457244430709</v>
@@ -27587,7 +27587,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>140.3173868732368</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27602,7 +27602,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>215.3734116236654</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27703,16 +27703,16 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>78.89006842480455</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>64.5930618811052</v>
       </c>
       <c r="G6" t="n">
-        <v>93.11323406457203</v>
+        <v>64.99692393175235</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>24.72602217249382</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>52.39469483153834</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>154.80420398674</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>174.8070973393067</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -27763,7 +27763,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>113.531113795253</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>142.1365273570535</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -27791,7 +27791,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>117.5934598419396</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>70.65457244430709</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>21.803381214711</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27830,7 +27830,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>249.2662938818791</v>
       </c>
       <c r="V7" t="n">
         <v>250.7780425852317</v>
@@ -27946,10 +27946,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G9" t="n">
-        <v>93.11323406457203</v>
+        <v>64.99692393175235</v>
       </c>
       <c r="H9" t="n">
-        <v>52.84233230531351</v>
+        <v>24.72602217249382</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>52.39469483153834</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T9" t="n">
-        <v>112.3448262124788</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U9" t="n">
         <v>182.9205141195597</v>
       </c>
       <c r="V9" t="n">
-        <v>202.9234074721264</v>
+        <v>178.1585615071388</v>
       </c>
       <c r="W9" t="n">
-        <v>169.7913174301274</v>
+        <v>166.4398532622953</v>
       </c>
       <c r="X9" t="n">
-        <v>133.726262638184</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
         <v>138.2959597602405</v>
@@ -28016,7 +28016,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>133.5672950116773</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28025,13 +28025,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>136.4780898758905</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2419956741075</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>74.00603661213921</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.4519170468789</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>143.6688510410689</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -34707,10 +34707,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="O2" t="n">
         <v>28.11631013281968</v>
@@ -34719,7 +34719,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="Q2" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>19.45843602451198</v>
       </c>
       <c r="K3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>28.11631013281968</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="M4" t="n">
-        <v>26.98029760220071</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="O5" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="P5" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>28.11631013281968</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>28.11631013281968</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="N7" t="n">
         <v>28.11631013281968</v>
@@ -35111,7 +35111,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="P7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,23 +35172,23 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="O8" t="n">
         <v>26.98029760220071</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,14 +35248,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="K9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>19.45843602451198</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>28.11631013281968</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M10" t="n">
         <v>26.98029760220071</v>
       </c>
       <c r="N10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J11" t="n">
-        <v>127.2185045261179</v>
+        <v>116.6729792792254</v>
       </c>
       <c r="K11" t="n">
         <v>183.1908437260755</v>
@@ -35430,7 +35430,7 @@
         <v>209.9493111369805</v>
       </c>
       <c r="Q11" t="n">
-        <v>149.7560463608193</v>
+        <v>160.3015716077118</v>
       </c>
       <c r="R11" t="n">
         <v>73.09277834049561</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J12" t="n">
         <v>361.4538618547203</v>
@@ -35509,10 +35509,10 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q12" t="n">
-        <v>302.8771999617259</v>
+        <v>172.6622442755464</v>
       </c>
       <c r="R12" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>112.660552071738</v>
       </c>
       <c r="K13" t="n">
-        <v>318.5214387406403</v>
+        <v>68.74102549415339</v>
       </c>
       <c r="L13" t="n">
-        <v>92.87362585164126</v>
+        <v>453.4904201330939</v>
       </c>
       <c r="M13" t="n">
-        <v>100.6623956886326</v>
+        <v>98.45703579895236</v>
       </c>
       <c r="N13" t="n">
-        <v>453.4904201330939</v>
+        <v>97.40569296380386</v>
       </c>
       <c r="O13" t="n">
         <v>453.4904201330939</v>
       </c>
       <c r="P13" t="n">
-        <v>71.00295255117602</v>
+        <v>386.9183107060322</v>
       </c>
       <c r="Q13" t="n">
-        <v>192.9370301044569</v>
+        <v>124.4753779736051</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J14" t="n">
-        <v>116.6729792792254</v>
+        <v>127.2185045261179</v>
       </c>
       <c r="K14" t="n">
         <v>183.1908437260755</v>
@@ -35670,7 +35670,7 @@
         <v>149.7560463608193</v>
       </c>
       <c r="R14" t="n">
-        <v>83.63830358738701</v>
+        <v>73.09277834049561</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J15" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K15" t="n">
         <v>126.31805374368</v>
@@ -35734,7 +35734,7 @@
         <v>177.4536592862605</v>
       </c>
       <c r="M15" t="n">
-        <v>248.1764093205309</v>
+        <v>210.2573141538332</v>
       </c>
       <c r="N15" t="n">
         <v>218.187254971653</v>
@@ -35746,7 +35746,7 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q15" t="n">
-        <v>453.4904201330936</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R15" t="n">
         <v>140.0290336644362</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.95174737656544</v>
+        <v>112.660552071738</v>
       </c>
       <c r="K16" t="n">
         <v>68.74102549415339</v>
       </c>
       <c r="L16" t="n">
-        <v>453.4904201330936</v>
+        <v>92.87362585164126</v>
       </c>
       <c r="M16" t="n">
-        <v>98.45703579895236</v>
+        <v>453.4904201330939</v>
       </c>
       <c r="N16" t="n">
-        <v>453.4904201330936</v>
+        <v>453.4904201330939</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4904201330936</v>
+        <v>453.4904201330939</v>
       </c>
       <c r="P16" t="n">
         <v>71.00295255117602</v>
       </c>
       <c r="Q16" t="n">
-        <v>163.0148136543436</v>
+        <v>89.88941890648248</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35901,13 +35901,13 @@
         <v>252.6282354634544</v>
       </c>
       <c r="P17" t="n">
-        <v>500.2365984271925</v>
+        <v>346.4601759244139</v>
       </c>
       <c r="Q17" t="n">
         <v>646.5731245049963</v>
       </c>
       <c r="R17" t="n">
-        <v>73.09277834049561</v>
+        <v>226.8692008432745</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J18" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K18" t="n">
         <v>126.31805374368</v>
@@ -35971,7 +35971,7 @@
         <v>177.4536592862605</v>
       </c>
       <c r="M18" t="n">
-        <v>606.8521995555867</v>
+        <v>210.2573141538332</v>
       </c>
       <c r="N18" t="n">
         <v>218.187254971653</v>
@@ -35983,7 +35983,7 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R18" t="n">
         <v>140.0290336644362</v>
@@ -36123,10 +36123,10 @@
         <v>116.6729792792254</v>
       </c>
       <c r="K20" t="n">
-        <v>715.2910308546669</v>
+        <v>183.1908437260755</v>
       </c>
       <c r="L20" t="n">
-        <v>233.3215478603483</v>
+        <v>722.7428106624658</v>
       </c>
       <c r="M20" t="n">
         <v>264.8134444910957</v>
@@ -36135,10 +36135,10 @@
         <v>269.8557199087733</v>
       </c>
       <c r="O20" t="n">
+        <v>252.6282354634544</v>
+      </c>
+      <c r="P20" t="n">
         <v>749.5420707691266</v>
-      </c>
-      <c r="P20" t="n">
-        <v>209.9493111369805</v>
       </c>
       <c r="Q20" t="n">
         <v>149.7560463608193</v>
@@ -36199,7 +36199,7 @@
         <v>39.2308739219741</v>
       </c>
       <c r="J21" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K21" t="n">
         <v>126.31805374368</v>
@@ -36214,16 +36214,16 @@
         <v>218.187254971653</v>
       </c>
       <c r="O21" t="n">
-        <v>675.3728677855494</v>
+        <v>195.9515233529941</v>
       </c>
       <c r="P21" t="n">
         <v>154.0950160493747</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R21" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J23" t="n">
-        <v>512.3590587818782</v>
+        <v>195.7035146539442</v>
       </c>
       <c r="K23" t="n">
         <v>941.691109142601</v>
@@ -36372,7 +36372,7 @@
         <v>269.8557199087733</v>
       </c>
       <c r="O23" t="n">
-        <v>673.2686929875651</v>
+        <v>1143.700659618279</v>
       </c>
       <c r="P23" t="n">
         <v>962.9582882582498</v>
@@ -36381,7 +36381,7 @@
         <v>646.5731245049963</v>
       </c>
       <c r="R23" t="n">
-        <v>226.8692008432745</v>
+        <v>73.09277834049561</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J24" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K24" t="n">
         <v>126.31805374368</v>
       </c>
       <c r="L24" t="n">
-        <v>574.0485446880135</v>
+        <v>177.4536592862605</v>
       </c>
       <c r="M24" t="n">
         <v>210.2573141538332</v>
@@ -36457,7 +36457,7 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755457</v>
       </c>
       <c r="R24" t="n">
         <v>140.0290336644362</v>
@@ -36597,25 +36597,25 @@
         <v>116.6729792792254</v>
       </c>
       <c r="K26" t="n">
-        <v>293.5330658889448</v>
+        <v>909.3924165166596</v>
       </c>
       <c r="L26" t="n">
-        <v>1174.916180769401</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M26" t="n">
-        <v>1174.916180769401</v>
+        <v>264.8134444910957</v>
       </c>
       <c r="N26" t="n">
-        <v>1174.916180769401</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O26" t="n">
-        <v>252.6282354634544</v>
+        <v>1143.700659618279</v>
       </c>
       <c r="P26" t="n">
-        <v>209.9493111369805</v>
+        <v>962.9582882582498</v>
       </c>
       <c r="Q26" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R26" t="n">
         <v>73.09277834049561</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J27" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K27" t="n">
         <v>126.31805374368</v>
@@ -36691,13 +36691,13 @@
         <v>195.9515233529941</v>
       </c>
       <c r="P27" t="n">
-        <v>657.2106088096189</v>
+        <v>154.0950160493747</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R27" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>116.6729792792254</v>
       </c>
       <c r="K29" t="n">
-        <v>183.1908437260755</v>
+        <v>941.691109142601</v>
       </c>
       <c r="L29" t="n">
-        <v>1174.916180769401</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.48198042949</v>
+        <v>264.8134444910957</v>
       </c>
       <c r="N29" t="n">
-        <v>1174.916180769401</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O29" t="n">
-        <v>252.6282354634544</v>
+        <v>1111.401966992338</v>
       </c>
       <c r="P29" t="n">
-        <v>209.9493111369805</v>
+        <v>962.9582882582498</v>
       </c>
       <c r="Q29" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R29" t="n">
-        <v>226.8692008432745</v>
+        <v>73.09277834049561</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J30" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K30" t="n">
         <v>126.31805374368</v>
@@ -36928,13 +36928,13 @@
         <v>195.9515233529941</v>
       </c>
       <c r="P30" t="n">
-        <v>657.2106088096189</v>
+        <v>154.0950160493747</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R30" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J32" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K32" t="n">
         <v>941.691109142601</v>
       </c>
       <c r="L32" t="n">
-        <v>233.3215478603483</v>
+        <v>1174.916180769401</v>
       </c>
       <c r="M32" t="n">
-        <v>1174.916180769401</v>
+        <v>1036.132518873719</v>
       </c>
       <c r="N32" t="n">
-        <v>1174.916180769401</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O32" t="n">
-        <v>546.0648251188509</v>
+        <v>252.6282354634544</v>
       </c>
       <c r="P32" t="n">
         <v>209.9493111369805</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J33" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K33" t="n">
         <v>126.31805374368</v>
@@ -37159,7 +37159,7 @@
         <v>210.2573141538332</v>
       </c>
       <c r="N33" t="n">
-        <v>721.302847731897</v>
+        <v>218.187254971653</v>
       </c>
       <c r="O33" t="n">
         <v>195.9515233529941</v>
@@ -37168,10 +37168,10 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R33" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J35" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K35" t="n">
-        <v>183.1908437260755</v>
+        <v>319.701708513509</v>
       </c>
       <c r="L35" t="n">
-        <v>749.5420707691266</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M35" t="n">
         <v>264.8134444910957</v>
       </c>
       <c r="N35" t="n">
-        <v>749.5420707691266</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O35" t="n">
-        <v>439.5118066313651</v>
+        <v>252.6282354634544</v>
       </c>
       <c r="P35" t="n">
         <v>209.9493111369805</v>
       </c>
       <c r="Q35" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R35" t="n">
-        <v>73.09277834049561</v>
+        <v>226.8692008432745</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>39.2308739219741</v>
       </c>
       <c r="J36" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K36" t="n">
         <v>126.31805374368</v>
@@ -37393,7 +37393,7 @@
         <v>177.4536592862605</v>
       </c>
       <c r="M36" t="n">
-        <v>689.6786585863886</v>
+        <v>210.2573141538332</v>
       </c>
       <c r="N36" t="n">
         <v>218.187254971653</v>
@@ -37405,10 +37405,10 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R36" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J38" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K38" t="n">
         <v>183.1908437260755</v>
       </c>
       <c r="L38" t="n">
-        <v>749.5420707691266</v>
+        <v>369.8324126477818</v>
       </c>
       <c r="M38" t="n">
         <v>264.8134444910957</v>
       </c>
       <c r="N38" t="n">
-        <v>749.5420707691266</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O38" t="n">
-        <v>285.7353841285865</v>
+        <v>252.6282354634544</v>
       </c>
       <c r="P38" t="n">
         <v>209.9493111369805</v>
       </c>
       <c r="Q38" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R38" t="n">
         <v>226.8692008432745</v>
@@ -37621,7 +37621,7 @@
         <v>39.2308739219741</v>
       </c>
       <c r="J39" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K39" t="n">
         <v>126.31805374368</v>
@@ -37630,7 +37630,7 @@
         <v>177.4536592862605</v>
       </c>
       <c r="M39" t="n">
-        <v>689.6786585863886</v>
+        <v>210.2573141538332</v>
       </c>
       <c r="N39" t="n">
         <v>218.187254971653</v>
@@ -37642,10 +37642,10 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R39" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>468.1532031759771</v>
       </c>
       <c r="P40" t="n">
-        <v>386.9183107060322</v>
+        <v>386.9183107060315</v>
       </c>
       <c r="Q40" t="n">
         <v>192.9370301044569</v>
@@ -37785,7 +37785,7 @@
         <v>183.1908437260755</v>
       </c>
       <c r="L41" t="n">
-        <v>243.8670731072396</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M41" t="n">
         <v>264.8134444910957</v>
@@ -37800,7 +37800,7 @@
         <v>209.9493111369805</v>
       </c>
       <c r="Q41" t="n">
-        <v>149.7560463608193</v>
+        <v>160.3015716077106</v>
       </c>
       <c r="R41" t="n">
         <v>73.09277834049561</v>
@@ -37858,7 +37858,7 @@
         <v>39.2308739219741</v>
       </c>
       <c r="J42" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K42" t="n">
         <v>126.31805374368</v>
@@ -37876,10 +37876,10 @@
         <v>195.9515233529941</v>
       </c>
       <c r="P42" t="n">
-        <v>453.4904201330936</v>
+        <v>154.0950160493747</v>
       </c>
       <c r="Q42" t="n">
-        <v>168.3198628883837</v>
+        <v>172.6622442755457</v>
       </c>
       <c r="R42" t="n">
         <v>140.0290336644362</v>
@@ -37940,25 +37940,25 @@
         <v>33.95174737656544</v>
       </c>
       <c r="K43" t="n">
-        <v>318.5214387406403</v>
+        <v>68.74102549415339</v>
       </c>
       <c r="L43" t="n">
-        <v>92.87362585164126</v>
+        <v>221.4373419527775</v>
       </c>
       <c r="M43" t="n">
         <v>453.4904201330936</v>
       </c>
       <c r="N43" t="n">
-        <v>97.40569296380386</v>
+        <v>453.4904201330936</v>
       </c>
       <c r="O43" t="n">
-        <v>219.5405693982382</v>
+        <v>453.4904201330936</v>
       </c>
       <c r="P43" t="n">
-        <v>386.9183107060322</v>
+        <v>71.00295255117602</v>
       </c>
       <c r="Q43" t="n">
-        <v>192.9370301044569</v>
+        <v>40.03450750051844</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J44" t="n">
-        <v>116.6729792792254</v>
+        <v>127.2185045261168</v>
       </c>
       <c r="K44" t="n">
         <v>183.1908437260755</v>
@@ -38040,7 +38040,7 @@
         <v>149.7560463608193</v>
       </c>
       <c r="R44" t="n">
-        <v>83.63830358738701</v>
+        <v>73.09277834049561</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J45" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K45" t="n">
-        <v>330.0382424202053</v>
+        <v>126.31805374368</v>
       </c>
       <c r="L45" t="n">
         <v>177.4536592862605</v>
@@ -38113,13 +38113,13 @@
         <v>195.9515233529941</v>
       </c>
       <c r="P45" t="n">
-        <v>453.4904201330936</v>
+        <v>154.0950160493747</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755457</v>
       </c>
       <c r="R45" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.95174737656544</v>
+        <v>112.660552071738</v>
       </c>
       <c r="K46" t="n">
         <v>68.74102549415339</v>
@@ -38183,16 +38183,16 @@
         <v>92.87362585164126</v>
       </c>
       <c r="M46" t="n">
-        <v>113.2362554754354</v>
+        <v>453.4904201330936</v>
       </c>
       <c r="N46" t="n">
         <v>453.4904201330936</v>
       </c>
       <c r="O46" t="n">
-        <v>453.4904201330936</v>
+        <v>350.442808935119</v>
       </c>
       <c r="P46" t="n">
-        <v>386.9183107060322</v>
+        <v>71.00295255117602</v>
       </c>
       <c r="Q46" t="n">
         <v>192.9370301044569</v>
